--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="6"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -14,12 +14,14 @@
     <sheet name="5-20-15" sheetId="42" r:id="rId5"/>
     <sheet name="5-27-15" sheetId="43" r:id="rId6"/>
     <sheet name="6-2-15" sheetId="44" r:id="rId7"/>
+    <sheet name="6-10-15" sheetId="45" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5-20-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5-27-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'5-6-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'6-10-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="61">
   <si>
     <t>Totals</t>
   </si>
@@ -475,7 +477,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,6 +595,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8201,7 +8204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
@@ -9671,4 +9674,1470 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42165</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21">
+        <v>336</v>
+      </c>
+      <c r="J17" s="21">
+        <v>4</v>
+      </c>
+      <c r="K17" s="21">
+        <v>82</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>80</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>48</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>3</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>25</v>
+      </c>
+      <c r="I26" s="21">
+        <v>592</v>
+      </c>
+      <c r="J26" s="21">
+        <v>96</v>
+      </c>
+      <c r="K26" s="21">
+        <v>28</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
+      <c r="J28" s="21">
+        <v>104</v>
+      </c>
+      <c r="K28" s="21">
+        <v>7</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>13</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>1072</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>616</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="7"/>
+    <workbookView xWindow="1530" yWindow="-45" windowWidth="15480" windowHeight="7995" tabRatio="833" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="5-27-15" sheetId="43" r:id="rId6"/>
     <sheet name="6-2-15" sheetId="44" r:id="rId7"/>
     <sheet name="6-10-15" sheetId="45" r:id="rId8"/>
+    <sheet name="6-17-15" sheetId="46" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -22,6 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5-27-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'5-6-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'6-10-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'6-17-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="61">
   <si>
     <t>Totals</t>
   </si>
@@ -906,23 +908,23 @@
       <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -934,7 +936,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -946,7 +948,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -956,7 +958,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -991,7 +993,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -1085,7 +1087,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1638,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1661,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1707,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1730,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1753,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1776,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +1827,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -1836,7 +1838,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -1847,7 +1849,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1858,7 +1860,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1869,7 +1871,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1880,7 +1882,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1891,7 +1893,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1902,7 +1904,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1913,7 +1915,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1924,7 +1926,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1935,7 +1937,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1946,7 +1948,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1957,7 +1959,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1968,7 +1970,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1979,7 +1981,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1990,7 +1992,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2001,7 +2003,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2012,7 +2014,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2023,7 +2025,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2034,7 +2036,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2045,7 +2047,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2056,7 +2058,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2067,7 +2069,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2078,7 +2080,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2088,7 +2090,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2098,7 +2100,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2108,7 +2110,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2118,7 +2120,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2128,7 +2130,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2138,7 +2140,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2147,7 +2149,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2156,7 +2158,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2165,7 +2167,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2174,79 +2176,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -2255,7 +2257,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2283,12 +2285,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
@@ -2296,7 +2298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="47">
         <v>4</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>5</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="47">
         <v>6</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>7</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <v>8</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -2392,23 +2394,23 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -2420,7 +2422,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -2432,7 +2434,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>42130</v>
       </c>
@@ -2444,7 +2446,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -2479,7 +2481,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -2520,7 +2522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -2575,7 +2577,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +2983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -3009,7 +3011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3180,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3203,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3226,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -3247,7 +3249,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3272,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3295,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -3316,7 +3318,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3369,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -3378,7 +3380,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -3389,7 +3391,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3400,7 +3402,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3411,7 +3413,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3422,7 +3424,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3433,7 +3435,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3444,7 +3446,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3455,7 +3457,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3466,7 +3468,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3477,7 +3479,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3488,7 +3490,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3499,7 +3501,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3510,7 +3512,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3521,7 +3523,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3532,7 +3534,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3543,7 +3545,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3554,7 +3556,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3565,7 +3567,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3576,7 +3578,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3587,7 +3589,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3598,7 +3600,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3609,7 +3611,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3620,7 +3622,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3630,7 +3632,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3640,7 +3642,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3650,7 +3652,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3660,7 +3662,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3670,7 +3672,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3680,7 +3682,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3689,7 +3691,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3698,7 +3700,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3707,7 +3709,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3716,79 +3718,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3797,7 +3799,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3824,23 +3826,23 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -3852,7 +3854,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -3864,7 +3866,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>42137</v>
       </c>
@@ -3876,7 +3878,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -3911,7 +3913,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -4007,7 +4009,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -4217,7 +4219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -4283,7 +4285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4642,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4665,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -4688,7 +4690,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -4711,7 +4713,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4736,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -4757,7 +4759,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -4780,7 +4782,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4833,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -4842,7 +4844,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -4853,7 +4855,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4864,7 +4866,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4875,7 +4877,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4886,7 +4888,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4897,7 +4899,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4908,7 +4910,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4919,7 +4921,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4930,7 +4932,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4941,7 +4943,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4952,7 +4954,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4963,7 +4965,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4974,7 +4976,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4985,7 +4987,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4996,7 +4998,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5007,7 +5009,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5018,7 +5020,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5029,7 +5031,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5040,7 +5042,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5051,7 +5053,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5062,7 +5064,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5073,7 +5075,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5084,7 +5086,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5094,7 +5096,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5104,7 +5106,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5114,7 +5116,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5124,7 +5126,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5134,7 +5136,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5144,7 +5146,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -5153,7 +5155,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5162,7 +5164,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5171,7 +5173,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5180,79 +5182,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5261,7 +5263,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5288,23 +5290,23 @@
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -5316,7 +5318,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -5328,7 +5330,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>42144</v>
       </c>
@@ -5340,7 +5342,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -5375,7 +5377,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -5416,7 +5418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -5438,7 +5440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -5469,7 +5471,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -5761,7 +5763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -6100,7 +6102,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -6123,7 +6125,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -6146,7 +6148,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -6169,7 +6171,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -6192,7 +6194,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -6215,7 +6217,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -6238,7 +6240,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -6289,7 +6291,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -6300,7 +6302,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -6311,7 +6313,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6322,7 +6324,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6333,7 +6335,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6344,7 +6346,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6355,7 +6357,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6366,7 +6368,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6377,7 +6379,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6388,7 +6390,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6399,7 +6401,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6410,7 +6412,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6421,7 +6423,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -6432,7 +6434,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6443,7 +6445,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -6454,7 +6456,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -6465,7 +6467,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -6476,7 +6478,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -6487,7 +6489,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -6498,7 +6500,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -6509,7 +6511,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -6520,7 +6522,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -6531,7 +6533,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -6542,7 +6544,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -6552,7 +6554,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -6562,7 +6564,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -6572,7 +6574,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -6582,7 +6584,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -6592,7 +6594,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -6602,7 +6604,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6611,7 +6613,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -6620,7 +6622,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6629,7 +6631,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6638,79 +6640,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -6719,7 +6721,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6746,23 +6748,23 @@
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -6774,7 +6776,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -6786,7 +6788,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>42151</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -6836,7 +6838,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -6932,7 +6934,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -6980,7 +6982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -7092,7 +7094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -7222,7 +7224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -7348,7 +7350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -7412,7 +7414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -7490,7 +7492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -7561,7 +7563,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -7584,7 +7586,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -7607,7 +7609,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -7630,7 +7632,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -7653,7 +7655,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -7676,7 +7678,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -7699,7 +7701,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -7750,7 +7752,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -7764,7 +7766,7 @@
       </c>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -7775,7 +7777,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7786,7 +7788,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7797,7 +7799,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7808,7 +7810,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7819,7 +7821,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7830,7 +7832,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7841,7 +7843,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7852,7 +7854,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7863,7 +7865,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7874,7 +7876,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7885,7 +7887,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7896,7 +7898,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7907,7 +7909,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7918,7 +7920,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7929,7 +7931,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7940,7 +7942,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7951,7 +7953,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7962,7 +7964,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7973,7 +7975,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7984,7 +7986,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7995,7 +7997,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -8006,7 +8008,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -8016,7 +8018,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -8026,7 +8028,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8036,7 +8038,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -8046,7 +8048,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8056,7 +8058,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -8066,7 +8068,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -8075,7 +8077,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -8084,7 +8086,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8093,7 +8095,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -8102,79 +8104,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -8183,7 +8185,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8210,23 +8212,23 @@
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -8238,7 +8240,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -8250,7 +8252,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>42157</v>
       </c>
@@ -8262,7 +8264,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -8297,7 +8299,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -8362,7 +8364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -8393,7 +8395,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -8437,7 +8439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -8503,7 +8505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -8859,7 +8861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -8895,7 +8897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -9040,7 +9042,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -9063,7 +9065,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -9086,7 +9088,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -9109,7 +9111,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -9132,7 +9134,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -9155,7 +9157,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -9178,7 +9180,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -9229,7 +9231,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -9240,7 +9242,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -9251,7 +9253,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -9262,7 +9264,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -9273,7 +9275,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -9284,7 +9286,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -9295,7 +9297,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -9306,7 +9308,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -9317,7 +9319,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -9328,7 +9330,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -9339,7 +9341,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -9350,7 +9352,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -9361,7 +9363,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -9372,7 +9374,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -9383,7 +9385,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -9394,7 +9396,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -9405,7 +9407,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -9416,7 +9418,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -9427,7 +9429,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -9438,7 +9440,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9449,7 +9451,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -9460,7 +9462,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -9471,7 +9473,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -9482,7 +9484,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -9492,7 +9494,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -9502,7 +9504,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -9512,7 +9514,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -9522,7 +9524,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -9532,7 +9534,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -9542,7 +9544,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -9551,7 +9553,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -9560,7 +9562,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -9569,7 +9571,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -9578,79 +9580,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9659,7 +9661,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9680,29 +9682,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -9714,7 +9716,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -9726,7 +9728,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>42165</v>
       </c>
@@ -9740,7 +9742,7 @@
       </c>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -9775,7 +9777,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -9842,7 +9844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -9873,7 +9875,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -9899,7 +9901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -9943,7 +9945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -9987,7 +9989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -10031,7 +10033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -10075,7 +10077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -10233,7 +10235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -10255,7 +10257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -10277,7 +10279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -10299,7 +10301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -10357,7 +10359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -10379,7 +10381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -10413,7 +10415,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -10506,7 +10508,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -10529,7 +10531,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -10552,7 +10554,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -10575,7 +10577,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -10598,7 +10600,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -10621,7 +10623,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -10644,7 +10646,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -10695,7 +10697,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -10706,7 +10708,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -10717,7 +10719,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10728,7 +10730,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10739,7 +10741,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10750,7 +10752,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10761,7 +10763,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -10772,7 +10774,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10783,7 +10785,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10794,7 +10796,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10805,7 +10807,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10816,7 +10818,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -10827,7 +10829,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10838,7 +10840,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -10849,7 +10851,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -10860,7 +10862,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -10871,7 +10873,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -10882,7 +10884,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10893,7 +10895,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -10904,7 +10906,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -10915,7 +10917,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -10926,7 +10928,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -10937,7 +10939,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -10948,7 +10950,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -10958,7 +10960,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -10968,7 +10970,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -10978,7 +10980,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -10988,7 +10990,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -10998,7 +11000,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -11008,7 +11010,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -11017,7 +11019,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -11026,7 +11028,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -11035,7 +11037,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -11044,79 +11046,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -11125,7 +11127,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -11140,4 +11142,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-45" windowWidth="15480" windowHeight="7995" tabRatio="833" activeTab="8"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="6-2-15" sheetId="44" r:id="rId7"/>
     <sheet name="6-10-15" sheetId="45" r:id="rId8"/>
     <sheet name="6-17-15" sheetId="46" r:id="rId9"/>
+    <sheet name="6-24-15" sheetId="47" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'6-10-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'6-17-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6-2-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'6-24-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="61">
   <si>
     <t>Totals</t>
   </si>
@@ -908,23 +910,23 @@
       <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -936,7 +938,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -948,7 +950,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -958,7 +960,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -993,7 +995,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -1087,7 +1089,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -1483,7 +1485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1640,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1663,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -1684,7 +1686,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1709,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1732,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1755,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -1776,7 +1778,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1829,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -1838,7 +1840,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -1849,7 +1851,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1860,7 +1862,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1871,7 +1873,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1882,7 +1884,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1893,7 +1895,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1904,7 +1906,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1915,7 +1917,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1926,7 +1928,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1937,7 +1939,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1948,7 +1950,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1959,7 +1961,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1970,7 +1972,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1981,7 +1983,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1992,7 +1994,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2003,7 +2005,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2014,7 +2016,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2025,7 +2027,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2036,7 +2038,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2047,7 +2049,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2058,7 +2060,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2069,7 +2071,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2080,7 +2082,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2090,7 +2092,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2100,7 +2102,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2110,7 +2112,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2120,7 +2122,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2130,7 +2132,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2140,7 +2142,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2149,7 +2151,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2158,7 +2160,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2167,7 +2169,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2176,79 +2178,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -2257,7 +2259,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2270,6 +2272,1472 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42179</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
+      <c r="J8" s="18">
+        <v>8</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>26</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21">
+        <v>31</v>
+      </c>
+      <c r="J17" s="21">
+        <v>8</v>
+      </c>
+      <c r="K17" s="21">
+        <v>6</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>10</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>43</v>
+      </c>
+      <c r="C20" s="15">
+        <v>33</v>
+      </c>
+      <c r="D20" s="15">
+        <v>9</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>126</v>
+      </c>
+      <c r="H20" s="21">
+        <v>13</v>
+      </c>
+      <c r="I20" s="21">
+        <v>39</v>
+      </c>
+      <c r="J20" s="21">
+        <v>160</v>
+      </c>
+      <c r="K20" s="21">
+        <v>26</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="18">
+        <v>5</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18">
+        <v>2</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18">
+        <v>6</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>5</v>
+      </c>
+      <c r="G26" s="21">
+        <v>19</v>
+      </c>
+      <c r="H26" s="21">
+        <v>10</v>
+      </c>
+      <c r="I26" s="21">
+        <v>174</v>
+      </c>
+      <c r="J26" s="21">
+        <v>78</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>3</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>40</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>58</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>38</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>924</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2285,12 +3753,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +3766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -2306,7 +3774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -2314,7 +3782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -2322,7 +3790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>4</v>
       </c>
@@ -2330,7 +3798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>5</v>
       </c>
@@ -2338,7 +3806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>6</v>
       </c>
@@ -2346,7 +3814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>7</v>
       </c>
@@ -2354,7 +3822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>8</v>
       </c>
@@ -2362,7 +3830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -2370,7 +3838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -2394,23 +3862,23 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -2422,7 +3890,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -2434,7 +3902,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42130</v>
       </c>
@@ -2446,7 +3914,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -2481,7 +3949,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -2522,7 +3990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -2546,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -2577,7 +4045,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -2621,7 +4089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +4111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +4133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2715,7 +4183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -2737,7 +4205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +4227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -2781,7 +4249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -2811,7 +4279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +4301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -2857,7 +4325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -2893,7 +4361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -2917,7 +4385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -2939,7 +4407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -2961,7 +4429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -2983,7 +4451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -3011,7 +4479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -3045,7 +4513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -3067,7 +4535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +4557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +4579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +4603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +4625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +4648,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +4671,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +4694,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -3249,7 +4717,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -3272,7 +4740,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -3295,7 +4763,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -3318,7 +4786,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +4837,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -3380,7 +4848,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -3391,7 +4859,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3402,7 +4870,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3413,7 +4881,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3424,7 +4892,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3435,7 +4903,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3446,7 +4914,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3457,7 +4925,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3468,7 +4936,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3479,7 +4947,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3490,7 +4958,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3501,7 +4969,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3512,7 +4980,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3523,7 +4991,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3534,7 +5002,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3545,7 +5013,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3556,7 +5024,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3567,7 +5035,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3578,7 +5046,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3589,7 +5057,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3600,7 +5068,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3611,7 +5079,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3622,7 +5090,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3632,7 +5100,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3642,7 +5110,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3652,7 +5120,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3662,7 +5130,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3672,7 +5140,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3682,7 +5150,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3691,7 +5159,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3700,7 +5168,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3709,7 +5177,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3718,79 +5186,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3799,7 +5267,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3826,23 +5294,23 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -3854,7 +5322,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -3866,7 +5334,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42137</v>
       </c>
@@ -3878,7 +5346,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -3913,7 +5381,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -3954,7 +5422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -3978,7 +5446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -4009,7 +5477,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -4033,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -4055,7 +5523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -4077,7 +5545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -4099,7 +5567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -4131,7 +5599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -4153,7 +5621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -4175,7 +5643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -4197,7 +5665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -4219,7 +5687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -4261,7 +5729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -4285,7 +5753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -4309,7 +5777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -4347,7 +5815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -4371,7 +5839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -4393,7 +5861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -4415,7 +5883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -4437,7 +5905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -4465,7 +5933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -4501,7 +5969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -4523,7 +5991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -4549,7 +6017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -4571,7 +6039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -4597,7 +6065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -4619,7 +6087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -4642,7 +6110,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +6133,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -4690,7 +6158,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -4713,7 +6181,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -4736,7 +6204,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -4759,7 +6227,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -4782,7 +6250,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +6301,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -4844,7 +6312,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -4855,7 +6323,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4866,7 +6334,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4877,7 +6345,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4888,7 +6356,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4899,7 +6367,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4910,7 +6378,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4921,7 +6389,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4932,7 +6400,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4943,7 +6411,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4954,7 +6422,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4965,7 +6433,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4976,7 +6444,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4987,7 +6455,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4998,7 +6466,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5009,7 +6477,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5020,7 +6488,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5031,7 +6499,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5042,7 +6510,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5053,7 +6521,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5064,7 +6532,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5075,7 +6543,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5086,7 +6554,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5096,7 +6564,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5106,7 +6574,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5116,7 +6584,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5126,7 +6594,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5136,7 +6604,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5146,7 +6614,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -5155,7 +6623,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5164,7 +6632,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5173,7 +6641,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5182,79 +6650,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5263,7 +6731,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5290,23 +6758,23 @@
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -5318,7 +6786,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -5330,7 +6798,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42144</v>
       </c>
@@ -5342,7 +6810,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -5377,7 +6845,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -5418,7 +6886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -5440,7 +6908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -5471,7 +6939,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -5497,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -5519,7 +6987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -5541,7 +7009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -5563,7 +7031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -5607,7 +7075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -5629,7 +7097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -5651,7 +7119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -5673,7 +7141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -5711,7 +7179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -5735,7 +7203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -5763,7 +7231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -5799,7 +7267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +7291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -5845,7 +7313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -5867,7 +7335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -5889,7 +7357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -5913,7 +7381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -5955,7 +7423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +7445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -6007,7 +7475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -6029,7 +7497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -6057,7 +7525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +7547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -6102,7 +7570,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -6125,7 +7593,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -6148,7 +7616,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -6171,7 +7639,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -6194,7 +7662,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -6217,7 +7685,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -6240,7 +7708,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -6291,7 +7759,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -6302,7 +7770,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -6313,7 +7781,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6324,7 +7792,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6335,7 +7803,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6346,7 +7814,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6357,7 +7825,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6368,7 +7836,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6379,7 +7847,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6390,7 +7858,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6401,7 +7869,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6412,7 +7880,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6423,7 +7891,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -6434,7 +7902,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6445,7 +7913,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -6456,7 +7924,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -6467,7 +7935,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -6478,7 +7946,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -6489,7 +7957,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -6500,7 +7968,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -6511,7 +7979,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -6522,7 +7990,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -6533,7 +8001,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -6544,7 +8012,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -6554,7 +8022,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -6564,7 +8032,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -6574,7 +8042,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -6584,7 +8052,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -6594,7 +8062,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -6604,7 +8072,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6613,7 +8081,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -6622,7 +8090,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6631,7 +8099,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6640,79 +8108,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -6721,7 +8189,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6748,23 +8216,23 @@
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -6776,7 +8244,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -6788,7 +8256,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42151</v>
       </c>
@@ -6803,7 +8271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -6838,7 +8306,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -6879,7 +8347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -6903,7 +8371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -6934,7 +8402,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -6960,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -6982,7 +8450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -7004,7 +8472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -7026,7 +8494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -7050,7 +8518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -7072,7 +8540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -7094,7 +8562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -7116,7 +8584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -7138,7 +8606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -7176,7 +8644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -7200,7 +8668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -7224,7 +8692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -7262,7 +8730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -7284,7 +8752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -7306,7 +8774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -7328,7 +8796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -7350,7 +8818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -7376,7 +8844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -7414,7 +8882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -7436,7 +8904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -7468,7 +8936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -7492,7 +8960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -7518,7 +8986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -7540,7 +9008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -7563,7 +9031,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -7586,7 +9054,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -7609,7 +9077,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -7632,7 +9100,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -7655,7 +9123,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -7678,7 +9146,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -7701,7 +9169,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -7752,7 +9220,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -7766,7 +9234,7 @@
       </c>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -7777,7 +9245,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7788,7 +9256,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7799,7 +9267,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7810,7 +9278,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7821,7 +9289,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7832,7 +9300,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7843,7 +9311,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7854,7 +9322,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7865,7 +9333,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7876,7 +9344,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7887,7 +9355,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7898,7 +9366,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7909,7 +9377,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7920,7 +9388,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7931,7 +9399,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7942,7 +9410,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7953,7 +9421,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7964,7 +9432,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7975,7 +9443,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7986,7 +9454,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7997,7 +9465,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -8008,7 +9476,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -8018,7 +9486,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -8028,7 +9496,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -8038,7 +9506,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -8048,7 +9516,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8058,7 +9526,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -8068,7 +9536,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -8077,7 +9545,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -8086,7 +9554,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8095,7 +9563,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -8104,79 +9572,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -8185,7 +9653,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8212,23 +9680,23 @@
       <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -8240,7 +9708,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -8252,7 +9720,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42157</v>
       </c>
@@ -8264,7 +9732,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -8299,7 +9767,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -8340,7 +9808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -8364,7 +9832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -8395,7 +9863,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -8417,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -8439,7 +9907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -8461,7 +9929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -8483,7 +9951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -8505,7 +9973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -8527,7 +9995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -8549,7 +10017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -8571,7 +10039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -8593,7 +10061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -8633,7 +10101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -8657,7 +10125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -8683,7 +10151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -8723,7 +10191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -8761,7 +10229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -8783,7 +10251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -8805,7 +10273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -8827,7 +10295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -8861,7 +10329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -8897,7 +10365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -8919,7 +10387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -8949,7 +10417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -8971,7 +10439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -8995,7 +10463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -9019,7 +10487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -9042,7 +10510,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -9065,7 +10533,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -9088,7 +10556,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -9111,7 +10579,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -9134,7 +10602,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -9157,7 +10625,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -9180,7 +10648,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -9231,7 +10699,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -9242,7 +10710,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -9253,7 +10721,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -9264,7 +10732,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -9275,7 +10743,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -9286,7 +10754,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -9297,7 +10765,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -9308,7 +10776,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -9319,7 +10787,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -9330,7 +10798,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -9341,7 +10809,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -9352,7 +10820,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -9363,7 +10831,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -9374,7 +10842,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -9385,7 +10853,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -9396,7 +10864,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -9407,7 +10875,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -9418,7 +10886,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -9429,7 +10897,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -9440,7 +10908,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9451,7 +10919,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -9462,7 +10930,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -9473,7 +10941,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -9484,7 +10952,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -9494,7 +10962,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -9504,7 +10972,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -9514,7 +10982,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -9524,7 +10992,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -9534,7 +11002,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -9544,7 +11012,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -9553,7 +11021,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -9562,7 +11030,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -9571,7 +11039,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -9580,79 +11048,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9661,7 +11129,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9688,23 +11156,23 @@
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -9716,7 +11184,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -9728,7 +11196,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42165</v>
       </c>
@@ -9742,7 +11210,7 @@
       </c>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -9777,7 +11245,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -9818,7 +11286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -9844,7 +11312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -9875,7 +11343,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -9901,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -9923,7 +11391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -9945,7 +11413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -9967,7 +11435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -9989,7 +11457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -10011,7 +11479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -10033,7 +11501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -10055,7 +11523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -10077,7 +11545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -10113,7 +11581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -10137,7 +11605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -10163,7 +11631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -10203,7 +11671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -10235,7 +11703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -10257,7 +11725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -10279,7 +11747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -10301,7 +11769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -10323,7 +11791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -10359,7 +11827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -10381,7 +11849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -10415,7 +11883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -10437,7 +11905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -10463,7 +11931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -10485,7 +11953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -10508,7 +11976,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -10531,7 +11999,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -10554,7 +12022,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -10577,7 +12045,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -10600,7 +12068,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -10623,7 +12091,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -10646,7 +12114,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -10697,7 +12165,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -10708,7 +12176,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -10719,7 +12187,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10730,7 +12198,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10741,7 +12209,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10752,7 +12220,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10763,7 +12231,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -10774,7 +12242,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10785,7 +12253,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10796,7 +12264,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10807,7 +12275,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10818,7 +12286,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -10829,7 +12297,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10840,7 +12308,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -10851,7 +12319,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -10862,7 +12330,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -10873,7 +12341,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -10884,7 +12352,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10895,7 +12363,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -10906,7 +12374,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -10917,7 +12385,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -10928,7 +12396,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -10939,7 +12407,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -10950,7 +12418,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -10960,7 +12428,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -10970,7 +12438,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -10980,7 +12448,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -10990,7 +12458,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -11000,7 +12468,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -11010,7 +12478,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -11019,7 +12487,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -11028,7 +12496,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -11037,7 +12505,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -11046,79 +12514,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -11127,7 +12595,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -11148,29 +12616,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
@@ -11182,7 +12650,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -11194,7 +12662,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>42172</v>
       </c>
@@ -11208,7 +12676,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="52" t="s">
         <v>55</v>
@@ -11243,7 +12711,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>32</v>
       </c>
@@ -11284,7 +12752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -11312,7 +12780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
@@ -11343,7 +12811,7 @@
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -11377,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
@@ -11399,7 +12867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
@@ -11421,7 +12889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
@@ -11443,7 +12911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
@@ -11465,7 +12933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -11487,7 +12955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>48</v>
       </c>
@@ -11509,7 +12977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
@@ -11531,7 +12999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
@@ -11553,7 +13021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
@@ -11587,7 +13055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
@@ -11609,7 +13077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
@@ -11631,7 +13099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -11671,7 +13139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
@@ -11697,7 +13165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
@@ -11719,7 +13187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
@@ -11741,7 +13209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
@@ -11763,7 +13231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
@@ -11789,7 +13257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
@@ -11825,7 +13293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
@@ -11847,7 +13315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
@@ -11879,7 +13347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
@@ -11901,7 +13369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
@@ -11931,7 +13399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
@@ -11955,7 +13423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
@@ -11978,7 +13446,7 @@
       </c>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -12001,7 +13469,7 @@
       </c>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
@@ -12024,7 +13492,7 @@
       </c>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -12047,7 +13515,7 @@
       </c>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>2</v>
       </c>
@@ -12070,7 +13538,7 @@
       </c>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>1</v>
       </c>
@@ -12093,7 +13561,7 @@
       </c>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>35</v>
       </c>
@@ -12116,7 +13584,7 @@
       </c>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
         <v>0</v>
       </c>
@@ -12167,7 +13635,7 @@
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -12178,7 +13646,7 @@
       <c r="H40" s="4"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -12189,7 +13657,7 @@
       <c r="H41" s="4"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -12200,7 +13668,7 @@
       <c r="H42" s="4"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -12211,7 +13679,7 @@
       <c r="H43" s="4"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -12222,7 +13690,7 @@
       <c r="H44" s="4"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -12233,7 +13701,7 @@
       <c r="H45" s="4"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -12244,7 +13712,7 @@
       <c r="H46" s="4"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -12255,7 +13723,7 @@
       <c r="H47" s="4"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -12266,7 +13734,7 @@
       <c r="H48" s="4"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -12277,7 +13745,7 @@
       <c r="H49" s="4"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -12288,7 +13756,7 @@
       <c r="H50" s="4"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -12299,7 +13767,7 @@
       <c r="H51" s="4"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12310,7 +13778,7 @@
       <c r="H52" s="4"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -12321,7 +13789,7 @@
       <c r="H53" s="4"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -12332,7 +13800,7 @@
       <c r="H54" s="4"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -12343,7 +13811,7 @@
       <c r="H55" s="4"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -12354,7 +13822,7 @@
       <c r="H56" s="4"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -12365,7 +13833,7 @@
       <c r="H57" s="4"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -12376,7 +13844,7 @@
       <c r="H58" s="4"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -12387,7 +13855,7 @@
       <c r="H59" s="4"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -12398,7 +13866,7 @@
       <c r="H60" s="4"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -12409,7 +13877,7 @@
       <c r="H61" s="4"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -12420,7 +13888,7 @@
       <c r="H62" s="4"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -12430,7 +13898,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -12440,7 +13908,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -12450,7 +13918,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -12460,7 +13928,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -12470,7 +13938,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -12480,7 +13948,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -12489,7 +13957,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -12498,7 +13966,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -12507,7 +13975,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -12516,79 +13984,79 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -12597,7 +14065,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>

--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="9"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="6-10-15" sheetId="45" r:id="rId8"/>
     <sheet name="6-17-15" sheetId="46" r:id="rId9"/>
     <sheet name="6-24-15" sheetId="47" r:id="rId10"/>
+    <sheet name="7-1-15" sheetId="48" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'6-17-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'6-24-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'7-1-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="61">
   <si>
     <t>Totals</t>
   </si>
@@ -2280,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
@@ -3742,124 +3744,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3874,7 +3766,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -3904,14 +3796,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42186</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -3996,11 +3888,13 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -4008,7 +3902,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -4050,18 +3944,26 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>22</v>
+      </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="18">
+        <v>4</v>
+      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -4140,22 +4042,18 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21">
+      <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="G12" s="21">
-        <v>28</v>
-      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L12" s="26">
-        <f t="shared" si="0"/>
-        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -4253,27 +4151,31 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>5</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>12</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>648</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="J17" s="21">
+        <v>8</v>
+      </c>
+      <c r="K17" s="21">
+        <v>36</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>114</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -4284,18 +4186,22 @@
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -4306,10 +4212,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="C19" s="19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4319,7 +4225,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -4330,32 +4236,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
+        <v>15</v>
+      </c>
+      <c r="C20" s="15">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H20" s="21">
         <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="K20" s="21">
+        <v>57</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -4366,20 +4274,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -4456,24 +4366,18 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -4483,31 +4387,33 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="B26" s="15">
         <v>1</v>
       </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
         <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+        <v>208</v>
+      </c>
+      <c r="J26" s="21">
+        <v>21</v>
+      </c>
+      <c r="K26" s="21">
+        <v>3</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -4543,15 +4449,27 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>3</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
+      <c r="I28" s="21">
+        <v>20</v>
+      </c>
+      <c r="J28" s="21">
+        <v>16</v>
+      </c>
+      <c r="K28" s="21">
+        <v>3</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -4584,20 +4502,28 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
+        <v>6</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <v>4</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="J30" s="21">
+        <v>2</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -4612,14 +4538,16 @@
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -4792,47 +4720,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>348</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>736</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -5284,14 +5212,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5336,7 +5374,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -5485,9 +5523,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5495,7 +5531,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -5571,19 +5607,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -5593,7 +5625,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -5691,39 +5723,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -5737,9 +5757,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -5747,7 +5765,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -5759,19 +5777,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -5782,34 +5800,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -5819,7 +5835,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -5828,12 +5846,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -5909,25 +5925,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -5937,33 +5953,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -6002,16 +6016,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -6043,23 +6053,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -6141,9 +6149,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -6151,7 +6157,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -6256,47 +6262,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -6748,14 +6754,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6800,7 +6806,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -6894,7 +6900,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -6902,7 +6910,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -6943,15 +6951,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -6959,7 +6965,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -7035,19 +7041,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -7146,34 +7162,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -7185,11 +7205,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -7197,7 +7217,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -7208,24 +7228,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -7236,32 +7252,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -7277,15 +7295,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -7361,21 +7379,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -7386,38 +7408,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -7450,26 +7466,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -7501,25 +7513,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -7601,7 +7611,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -7609,7 +7621,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -7714,47 +7726,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -8206,14 +8218,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8228,7 +8240,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -8258,7 +8270,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -8267,9 +8279,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -8355,9 +8364,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -8365,7 +8372,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -8406,23 +8413,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -8500,9 +8507,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -8512,7 +8517,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -8611,34 +8616,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -8650,19 +8655,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -8673,20 +8678,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -8697,34 +8706,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -8740,13 +8747,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -8822,23 +8831,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -8849,34 +8856,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -8910,27 +8921,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -8940,9 +8949,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -8954,7 +8961,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -8965,22 +8972,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -9175,47 +9184,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -9229,9 +9238,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9670,14 +9676,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9722,7 +9728,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -9731,6 +9737,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -9871,15 +9880,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -9957,7 +9970,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -9967,7 +9982,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -10066,36 +10081,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -10107,19 +10120,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -10135,17 +10148,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -10156,36 +10167,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -10195,35 +10204,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -10300,30 +10293,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -10334,32 +10319,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -10393,25 +10380,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -10421,7 +10410,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -10433,7 +10424,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -10444,9 +10435,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -10457,7 +10450,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -10471,9 +10464,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -10481,7 +10472,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -10654,47 +10645,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -10708,6 +10699,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11146,14 +11140,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11198,16 +11192,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -11301,12 +11293,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -11348,9 +11338,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -11358,12 +11346,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -11550,32 +11536,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -11585,11 +11575,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -11599,7 +11589,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -11609,23 +11599,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -11635,37 +11625,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -11679,25 +11669,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -11773,19 +11769,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -11796,32 +11804,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -11855,29 +11863,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -11910,12 +11914,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -11925,7 +11927,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -11939,7 +11941,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -11947,7 +11951,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -12120,47 +12124,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -12612,14 +12616,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12664,16 +12668,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -12756,25 +12760,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -12817,29 +12819,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -13026,30 +13020,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -13059,7 +13055,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -13071,7 +13069,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -13081,7 +13079,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -13089,11 +13089,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -13103,37 +13105,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -13143,23 +13145,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -13242,16 +13250,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -13262,32 +13266,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -13321,7 +13325,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -13330,18 +13334,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -13374,26 +13380,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -13412,12 +13414,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -13590,47 +13590,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -14080,4 +14080,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="10"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="6-17-15" sheetId="46" r:id="rId9"/>
     <sheet name="6-24-15" sheetId="47" r:id="rId10"/>
     <sheet name="7-1-15" sheetId="48" r:id="rId11"/>
+    <sheet name="7-9-15" sheetId="49" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -29,6 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'6-24-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'7-1-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'7-9-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -219,6 +221,9 @@
   </si>
   <si>
     <t>no catch</t>
+  </si>
+  <si>
+    <t>trap failure</t>
   </si>
 </sst>
 </file>
@@ -3748,7 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
@@ -5212,124 +5217,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5344,7 +5239,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -5374,14 +5269,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42194</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -5465,11 +5362,15 @@
         <v>30</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -5478,7 +5379,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -5526,12 +5427,18 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="18">
+        <v>10</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -5611,21 +5518,17 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -5725,25 +5628,29 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>14</v>
+      </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>648</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="J17" s="21">
+        <v>14</v>
+      </c>
+      <c r="K17" s="21">
+        <v>32</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>109</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -5777,9 +5684,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -5789,7 +5694,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -5800,10 +5705,10 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="21">
@@ -5811,21 +5716,23 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="K20" s="21">
+        <v>84</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -5838,18 +5745,28 @@
       <c r="B21" s="19">
         <v>4</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19">
+        <v>5</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="F21" s="18">
+        <v>7</v>
+      </c>
+      <c r="G21" s="18">
+        <v>51</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
+      <c r="I21" s="18">
+        <v>5</v>
+      </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -5926,24 +5843,18 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -5953,31 +5864,33 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="J26" s="21">
+        <v>15</v>
+      </c>
+      <c r="K26" s="21">
+        <v>2</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -6010,18 +5923,26 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <v>3</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>15</v>
+      </c>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="21">
+        <v>5</v>
+      </c>
+      <c r="J28" s="21">
+        <v>18</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -6053,9 +5974,7 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>1</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
@@ -6067,7 +5986,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -6082,14 +6001,16 @@
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -6150,14 +6071,16 @@
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="G34" s="18">
+        <v>3</v>
+      </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -6173,14 +6096,16 @@
       <c r="D35" s="19"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="17">
         <v>71</v>
@@ -6262,56 +6187,58 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>315</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>955</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -6754,14 +6681,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6806,7 +6843,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -6955,9 +6992,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -6965,7 +7000,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -7041,19 +7076,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -7063,7 +7094,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -7161,39 +7192,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -7207,9 +7226,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -7217,7 +7234,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -7229,19 +7246,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -7252,34 +7269,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -7289,7 +7304,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -7298,12 +7315,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -7379,25 +7394,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -7407,33 +7422,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -7472,16 +7485,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -7513,23 +7522,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -7611,9 +7618,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -7621,7 +7626,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -7726,47 +7731,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -8218,14 +8223,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8270,7 +8275,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -8364,7 +8369,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -8372,7 +8379,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -8413,15 +8420,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -8429,7 +8434,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -8505,19 +8510,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -8616,34 +8631,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -8655,11 +8674,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -8667,7 +8686,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -8678,24 +8697,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -8706,32 +8721,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -8747,15 +8764,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -8831,21 +8848,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -8856,38 +8877,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -8920,26 +8935,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -8971,25 +8982,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -9071,7 +9080,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -9079,7 +9090,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -9184,47 +9195,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -9676,14 +9687,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9698,7 +9709,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -9728,7 +9739,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -9737,9 +9748,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -9825,9 +9833,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -9835,7 +9841,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -9876,23 +9882,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -9970,9 +9976,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -9982,7 +9986,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -10081,34 +10085,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -10120,19 +10124,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -10143,20 +10147,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -10167,34 +10175,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -10210,13 +10216,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -10292,23 +10300,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -10319,34 +10325,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -10380,27 +10390,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -10410,9 +10418,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -10424,7 +10430,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -10435,22 +10441,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -10645,47 +10653,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -10699,9 +10707,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11140,14 +11145,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11192,7 +11197,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11201,6 +11206,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -11341,15 +11349,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -11427,7 +11439,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -11437,7 +11451,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -11536,36 +11550,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -11577,19 +11589,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -11605,17 +11617,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -11626,36 +11636,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -11665,35 +11673,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -11770,30 +11762,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -11804,32 +11788,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -11863,25 +11849,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -11891,7 +11879,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -11903,7 +11893,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -11914,9 +11904,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -11927,7 +11919,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -11941,9 +11933,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -11951,7 +11941,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -12124,47 +12114,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -12178,6 +12168,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12616,14 +12609,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12668,16 +12661,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -12771,12 +12762,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -12818,9 +12807,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -12828,12 +12815,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -13020,32 +13005,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -13055,11 +13044,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -13069,7 +13058,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -13079,23 +13068,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -13105,37 +13094,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -13149,25 +13138,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -13243,19 +13238,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -13266,32 +13273,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -13325,29 +13332,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -13380,12 +13383,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -13395,7 +13396,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -13409,7 +13410,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -13417,7 +13420,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -13590,47 +13593,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -14082,14 +14085,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14134,16 +14137,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -14226,25 +14229,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -14287,29 +14288,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -14496,30 +14489,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -14529,7 +14524,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -14541,7 +14538,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -14551,7 +14548,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -14559,11 +14558,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -14573,37 +14574,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -14613,23 +14614,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -14712,16 +14719,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -14732,32 +14735,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -14791,7 +14794,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -14800,18 +14803,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -14844,26 +14849,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -14882,12 +14883,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -15060,47 +15059,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -15550,4 +15549,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="11"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="6-24-15" sheetId="47" r:id="rId10"/>
     <sheet name="7-1-15" sheetId="48" r:id="rId11"/>
     <sheet name="7-9-15" sheetId="49" r:id="rId12"/>
+    <sheet name="7-15-15" sheetId="50" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -30,6 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'6-24-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'7-1-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'7-15-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'7-9-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -5221,7 +5223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
@@ -6681,124 +6683,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6813,7 +6705,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -6843,14 +6735,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42200</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -6935,19 +6829,23 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -6990,17 +6888,27 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="18">
+        <v>9</v>
+      </c>
+      <c r="J8" s="18">
+        <v>10</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -7076,25 +6984,21 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
-        <v>28</v>
-      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L12" s="26">
-        <f t="shared" si="0"/>
-        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -7192,27 +7096,33 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>12</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>65</v>
+      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21">
-        <v>648</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="J17" s="21">
+        <v>20</v>
+      </c>
+      <c r="K17" s="21">
+        <v>16</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>128</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -7246,19 +7156,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>3</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -7269,32 +7179,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="21">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
         <v>1</v>
       </c>
-      <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="K20" s="21">
+        <v>52</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -7305,20 +7217,30 @@
         <v>17</v>
       </c>
       <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="19">
+        <v>5</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>34</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -7395,24 +7317,18 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -7423,30 +7339,28 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="21">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="J26" s="21">
+        <v>81</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -7479,18 +7393,32 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <v>11</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>16</v>
+      </c>
+      <c r="H28" s="21">
+        <v>16</v>
+      </c>
+      <c r="I28" s="21">
+        <v>31</v>
+      </c>
+      <c r="J28" s="21">
+        <v>128</v>
+      </c>
+      <c r="K28" s="21">
+        <v>1</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -7525,18 +7453,28 @@
       <c r="B30" s="15">
         <v>1</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="21">
+        <v>2</v>
+      </c>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="J30" s="21">
+        <v>1</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -7551,14 +7489,16 @@
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>5</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -7731,47 +7671,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>154</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -8223,14 +8163,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8275,7 +8325,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -8424,9 +8474,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -8434,7 +8482,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -8510,19 +8558,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -8532,7 +8576,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -8630,39 +8674,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -8676,9 +8708,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -8686,7 +8716,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -8698,19 +8728,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -8721,34 +8751,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -8758,7 +8786,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -8767,12 +8797,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -8848,25 +8876,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -8876,33 +8904,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -8941,16 +8967,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -8982,23 +9004,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -9080,9 +9100,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -9090,7 +9108,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -9195,47 +9213,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -9687,14 +9705,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9739,7 +9757,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -9833,7 +9851,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -9841,7 +9861,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -9882,15 +9902,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -9898,7 +9916,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -9974,19 +9992,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -10085,34 +10113,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -10124,11 +10156,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -10136,7 +10168,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -10147,24 +10179,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -10175,32 +10203,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -10216,15 +10246,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -10300,21 +10330,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -10325,38 +10359,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -10389,26 +10417,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -10440,25 +10464,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -10540,7 +10562,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -10548,7 +10572,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -10653,47 +10677,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -11145,14 +11169,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11167,7 +11191,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -11197,7 +11221,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11206,9 +11230,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -11294,9 +11315,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -11304,7 +11323,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -11345,23 +11364,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -11439,9 +11458,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -11451,7 +11468,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -11550,34 +11567,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -11589,19 +11606,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -11612,20 +11629,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -11636,34 +11657,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -11679,13 +11698,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -11761,23 +11782,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -11788,34 +11807,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -11849,27 +11872,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -11879,9 +11900,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -11893,7 +11912,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -11904,22 +11923,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -12114,47 +12135,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -12168,9 +12189,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12609,14 +12627,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12661,7 +12679,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12670,6 +12688,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -12810,15 +12831,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -12896,7 +12921,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -12906,7 +12933,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -13005,36 +13032,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -13046,19 +13071,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -13074,17 +13099,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -13095,36 +13118,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -13134,35 +13155,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -13239,30 +13244,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -13273,32 +13270,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -13332,25 +13331,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -13360,7 +13361,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -13372,7 +13375,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -13383,9 +13386,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -13396,7 +13401,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -13410,9 +13415,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -13420,7 +13423,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -13593,47 +13596,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -13647,6 +13650,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14085,14 +14091,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14137,16 +14143,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -14240,12 +14244,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -14287,9 +14289,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -14297,12 +14297,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -14489,32 +14487,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -14524,11 +14526,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -14538,7 +14540,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -14548,23 +14550,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -14574,37 +14576,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -14618,25 +14620,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -14712,19 +14720,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -14735,32 +14755,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -14794,29 +14814,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -14849,12 +14865,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -14864,7 +14878,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -14878,7 +14892,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -14886,7 +14902,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -15059,47 +15075,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -15551,14 +15567,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15603,16 +15619,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -15695,25 +15711,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -15756,29 +15770,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -15965,30 +15971,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -15998,7 +16006,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -16010,7 +16020,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -16020,7 +16030,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -16028,11 +16040,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -16042,37 +16056,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -16082,23 +16096,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -16181,16 +16201,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -16201,32 +16217,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -16260,7 +16276,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -16269,18 +16285,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -16313,26 +16331,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -16351,12 +16365,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -16529,47 +16541,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -17019,4 +17031,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="12"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="7-1-15" sheetId="48" r:id="rId11"/>
     <sheet name="7-9-15" sheetId="49" r:id="rId12"/>
     <sheet name="7-15-15" sheetId="50" r:id="rId13"/>
+    <sheet name="7-22-15" sheetId="51" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -32,6 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'6-24-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'7-1-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'7-15-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'7-22-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'7-9-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -6687,7 +6689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
@@ -8163,124 +8165,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8295,7 +8187,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -8325,14 +8217,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42207</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -8417,19 +8309,25 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21">
+        <v>7</v>
+      </c>
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -8475,14 +8373,20 @@
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>5</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="18">
+        <v>8</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -8558,25 +8462,23 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
+      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -8652,7 +8554,9 @@
       <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
@@ -8664,7 +8568,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="17">
         <v>14</v>
@@ -8674,27 +8578,31 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15">
-        <v>55</v>
-      </c>
+      <c r="B17" s="15">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>18</v>
+      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21">
-        <v>648</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="J17" s="21">
+        <v>6</v>
+      </c>
+      <c r="K17" s="21">
+        <v>8</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>62</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -8712,11 +8620,13 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -8728,9 +8638,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -8740,7 +8648,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -8751,32 +8659,30 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
-      </c>
-      <c r="C20" s="15">
-        <v>51</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>148</v>
+      </c>
+      <c r="K20" s="21">
+        <v>15</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -8787,20 +8693,26 @@
         <v>17</v>
       </c>
       <c r="B21" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="18">
+        <v>8</v>
+      </c>
+      <c r="G21" s="18">
+        <v>47</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -8876,25 +8788,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -8905,30 +8813,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15">
         <v>1</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
       <c r="H26" s="21">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+        <v>328</v>
+      </c>
+      <c r="J26" s="21">
+        <v>36</v>
+      </c>
+      <c r="K26" s="21">
+        <v>18</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -8961,18 +8871,30 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <v>2</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="H28" s="21">
+        <v>4</v>
+      </c>
+      <c r="I28" s="21">
+        <v>4</v>
+      </c>
+      <c r="J28" s="21">
+        <v>21</v>
+      </c>
+      <c r="K28" s="21">
+        <v>2</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -9005,20 +8927,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="J30" s="21">
+        <v>2</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -9028,19 +8954,23 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>1</v>
+      </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>6</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -9213,47 +9143,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>372</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>923</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -9705,14 +9635,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9757,7 +9797,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -9906,9 +9946,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -9916,7 +9954,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -9992,19 +10030,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -10014,7 +10048,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -10112,39 +10146,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -10158,9 +10180,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -10168,7 +10188,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -10180,19 +10200,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -10203,34 +10223,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -10240,7 +10258,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -10249,12 +10269,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -10330,25 +10348,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -10358,33 +10376,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -10423,16 +10439,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -10464,23 +10476,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -10562,9 +10572,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -10572,7 +10580,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -10677,47 +10685,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -11169,14 +11177,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11221,7 +11229,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11315,7 +11323,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -11323,7 +11333,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -11364,15 +11374,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -11380,7 +11388,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -11456,19 +11464,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -11567,34 +11585,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -11606,11 +11628,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -11618,7 +11640,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -11629,24 +11651,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -11657,32 +11675,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -11698,15 +11718,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -11782,21 +11802,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -11807,38 +11831,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -11871,26 +11889,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -11922,25 +11936,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -12022,7 +12034,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -12030,7 +12044,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -12135,47 +12149,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -12627,14 +12641,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12649,7 +12663,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -12679,7 +12693,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12688,9 +12702,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -12776,9 +12787,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -12786,7 +12795,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -12827,23 +12836,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -12921,9 +12930,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -12933,7 +12940,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -13032,34 +13039,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -13071,19 +13078,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -13094,20 +13101,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -13118,34 +13129,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -13161,13 +13170,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -13243,23 +13254,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -13270,34 +13279,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -13331,27 +13344,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -13361,9 +13372,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -13375,7 +13384,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -13386,22 +13395,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -13596,47 +13607,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -13650,9 +13661,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14091,14 +14099,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14143,7 +14151,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -14152,6 +14160,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -14292,15 +14303,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -14378,7 +14393,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -14388,7 +14405,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -14487,36 +14504,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -14528,19 +14543,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -14556,17 +14571,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -14577,36 +14590,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -14616,35 +14627,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -14721,30 +14716,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -14755,32 +14742,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -14814,25 +14803,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -14842,7 +14833,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -14854,7 +14847,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -14865,9 +14858,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -14878,7 +14873,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -14892,9 +14887,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -14902,7 +14895,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -15075,47 +15068,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -15129,6 +15122,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15567,14 +15563,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15619,16 +15615,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -15722,12 +15716,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -15769,9 +15761,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -15779,12 +15769,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -15971,32 +15959,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -16006,11 +15998,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -16020,7 +16012,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -16030,23 +16022,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -16056,37 +16048,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -16100,25 +16092,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -16194,19 +16192,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -16217,32 +16227,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -16276,29 +16286,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -16331,12 +16337,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -16346,7 +16350,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -16360,7 +16364,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -16368,7 +16374,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -16541,47 +16547,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -17033,14 +17039,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17085,16 +17091,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -17177,25 +17183,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -17238,29 +17242,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -17447,30 +17443,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -17480,7 +17478,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -17492,7 +17492,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -17502,7 +17502,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -17510,11 +17512,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -17524,37 +17528,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -17564,23 +17568,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -17663,16 +17673,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -17683,32 +17689,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -17742,7 +17748,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -17751,18 +17757,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -17795,26 +17803,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -17833,12 +17837,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -18011,47 +18013,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -18501,4 +18503,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" activeTab="13"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="7-9-15" sheetId="49" r:id="rId12"/>
     <sheet name="7-15-15" sheetId="50" r:id="rId13"/>
     <sheet name="7-22-15" sheetId="51" r:id="rId14"/>
+    <sheet name="7-29-15" sheetId="52" r:id="rId15"/>
+    <sheet name="8-5-15" sheetId="53" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -34,7 +36,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'7-1-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'7-15-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'7-22-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'7-29-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'7-9-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'8-5-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -8169,7 +8173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
@@ -9635,124 +9639,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9767,7 +9661,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -9797,14 +9691,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42214</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -9887,21 +9781,29 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <v>14</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="21">
+        <v>4</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -9947,14 +9849,20 @@
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>18</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -10030,25 +9938,33 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="15">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21">
         <v>1</v>
       </c>
       <c r="G12" s="21">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -10146,27 +10062,31 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>2</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3</v>
+      </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>28</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>648</v>
+        <v>21</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21">
+        <v>8</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>64</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -10200,19 +10120,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18">
+        <v>3</v>
+      </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -10223,32 +10143,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D20" s="15">
+        <v>17</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="K20" s="21">
+        <v>29</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>394</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -10259,20 +10181,28 @@
         <v>17</v>
       </c>
       <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="C21" s="19">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3</v>
+      </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18">
+        <v>12</v>
+      </c>
+      <c r="H21" s="18">
+        <v>7</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -10349,24 +10279,18 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -10377,27 +10301,25 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15">
         <v>1</v>
       </c>
       <c r="E26" s="21"/>
-      <c r="F26" s="21">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>5</v>
+      </c>
+      <c r="I26" s="21">
+        <v>112</v>
+      </c>
+      <c r="J26" s="21">
+        <v>2</v>
+      </c>
+      <c r="K26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="21">
-        <v>22</v>
-      </c>
-      <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
         <v>124</v>
@@ -10433,18 +10355,26 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <v>7</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="21">
+        <v>1</v>
+      </c>
+      <c r="J28" s="21">
+        <v>7</v>
+      </c>
+      <c r="K28" s="21">
+        <v>2</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -10476,21 +10406,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15">
+        <v>7</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>10</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -10500,19 +10432,35 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>6</v>
+      </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>2</v>
+      </c>
+      <c r="F31" s="21">
+        <v>2</v>
+      </c>
+      <c r="G31" s="21">
+        <v>20</v>
+      </c>
+      <c r="H31" s="21">
+        <v>2</v>
+      </c>
+      <c r="I31" s="21">
+        <v>4</v>
+      </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>10</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -10685,47 +10633,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>526</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>173</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>1162</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -11177,14 +11125,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11199,7 +11147,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -11229,14 +11177,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42221</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -11319,21 +11267,29 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>8</v>
+      </c>
       <c r="F6" s="21">
+        <v>4</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -11374,21 +11330,31 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18">
-        <v>3</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="18">
+        <v>8</v>
+      </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="18">
+        <v>3</v>
+      </c>
+      <c r="K8" s="18">
+        <v>2</v>
+      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -11446,15 +11412,21 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M11" s="17">
         <v>8</v>
@@ -11465,28 +11437,30 @@
         <v>24</v>
       </c>
       <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>56</v>
+      </c>
       <c r="G12" s="21">
-        <v>18</v>
-      </c>
-      <c r="H12" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="H12" s="21">
+        <v>5</v>
+      </c>
       <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
+      <c r="J12" s="21">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -11585,38 +11559,28 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="21">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -11630,9 +11594,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -11640,7 +11602,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -11659,12 +11621,10 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -11675,34 +11635,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15">
+        <v>109</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21">
+        <v>84</v>
+      </c>
+      <c r="H20" s="21">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21">
         <v>22</v>
       </c>
-      <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="J20" s="21">
+        <v>81</v>
+      </c>
+      <c r="K20" s="21">
         <v>7</v>
       </c>
-      <c r="I20" s="21">
-        <v>9</v>
-      </c>
-      <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -11713,20 +11673,30 @@
         <v>17</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="19">
+        <v>7</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="18">
+        <v>7</v>
+      </c>
+      <c r="G21" s="18">
+        <v>10</v>
+      </c>
+      <c r="H21" s="18">
+        <v>9</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="J21" s="18">
+        <v>8</v>
+      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -11802,25 +11772,19 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>2</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -11830,33 +11794,27 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>2</v>
+      </c>
+      <c r="I26" s="21">
+        <v>176</v>
+      </c>
+      <c r="J26" s="21">
+        <v>3</v>
+      </c>
+      <c r="K26" s="21">
         <v>1</v>
       </c>
-      <c r="F26" s="21">
-        <v>11</v>
-      </c>
-      <c r="G26" s="21">
-        <v>58</v>
-      </c>
-      <c r="H26" s="21">
-        <v>38</v>
-      </c>
-      <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
-      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -11889,22 +11847,24 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <v>3</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>6</v>
+      </c>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
+      <c r="I28" s="21"/>
       <c r="J28" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -11938,21 +11898,27 @@
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="21">
+        <v>2</v>
+      </c>
       <c r="G30" s="21">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="I30" s="21">
+        <v>6</v>
+      </c>
+      <c r="J30" s="21">
+        <v>3</v>
+      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -11962,19 +11928,35 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>9</v>
+      </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="21">
+        <v>20</v>
+      </c>
+      <c r="F31" s="21">
+        <v>69</v>
+      </c>
+      <c r="G31" s="21">
+        <v>7</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
+        <v>14</v>
+      </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>12</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -12034,9 +12016,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -12044,7 +12024,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -12149,47 +12129,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1030</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -12641,14 +12621,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12693,7 +12783,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12787,7 +12877,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -12795,7 +12887,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -12836,14 +12928,10 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -12852,7 +12940,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -12932,15 +13020,21 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>28</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -13038,35 +13132,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>28</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="21">
-        <v>2</v>
-      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
-      </c>
-      <c r="J17" s="21">
-        <v>7</v>
-      </c>
-      <c r="K17" s="21">
-        <v>99</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -13078,9 +13164,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -13090,7 +13174,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -13101,16 +13185,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -13118,7 +13198,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -13132,29 +13212,29 @@
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
-      </c>
-      <c r="D20" s="15">
-        <v>8</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="21">
+        <v>72</v>
+      </c>
       <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -13164,21 +13244,21 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -13255,20 +13335,24 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="C25" s="19">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
         <v>1</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>16</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -13278,39 +13362,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
         <v>4</v>
       </c>
-      <c r="C26" s="15">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
-      <c r="E26" s="21">
-        <v>3</v>
-      </c>
-      <c r="F26" s="21">
-        <v>11</v>
-      </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
-      </c>
-      <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -13343,26 +13419,18 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
-      <c r="I28" s="21">
-        <v>64</v>
-      </c>
-      <c r="J28" s="21">
-        <v>15</v>
-      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -13395,24 +13463,20 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L30" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -13607,47 +13671,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -14099,14 +14163,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14121,7 +14185,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -14151,7 +14215,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -14160,9 +14224,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -14304,18 +14365,16 @@
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -14391,21 +14450,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -14504,34 +14571,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
+      <c r="I17" s="21">
         <v>15</v>
       </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="21">
-        <v>2</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
-      <c r="I17" s="21">
-        <v>336</v>
-      </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="K17" s="21">
+        <v>14</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -14545,17 +14616,17 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -14570,16 +14641,16 @@
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -14590,34 +14661,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="21">
         <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I20" s="21">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
+        <v>3</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -14636,10 +14707,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -14716,22 +14789,24 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -14744,32 +14819,30 @@
       <c r="B26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21">
         <v>1</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -14802,28 +14875,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>9</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>2</v>
-      </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -14833,9 +14900,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -14847,7 +14912,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -14857,23 +14922,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>2</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -14955,7 +15020,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -14963,7 +15030,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -15068,15 +15135,15 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
@@ -15084,31 +15151,31 @@
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -15122,9 +15189,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15563,14 +15627,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15585,7 +15649,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -15615,7 +15679,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -15709,9 +15773,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -15719,7 +15781,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -15760,10 +15822,14 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -15772,7 +15838,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -15959,36 +16025,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>7</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C17" s="15">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>69</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K17" s="21">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -16001,7 +16065,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -16012,7 +16076,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -16023,22 +16087,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>5</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -16049,36 +16115,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
         <v>10</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21">
-        <v>112</v>
-      </c>
-      <c r="H20" s="21">
-        <v>6</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
+      <c r="I20" s="21"/>
       <c r="J20" s="21">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="K20" s="21">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -16088,35 +16150,21 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
         <v>2</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
-      <c r="L21" s="26">
-        <f t="shared" si="0"/>
-        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -16192,31 +16240,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L25" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -16227,32 +16265,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
+      <c r="E26" s="21">
+        <v>3</v>
+      </c>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="K26" s="21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -16286,25 +16330,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -16337,20 +16381,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -16364,9 +16412,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -16374,7 +16420,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -16547,47 +16593,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -17039,14 +17085,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17091,17 +17137,18 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -17194,12 +17241,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -17241,22 +17286,22 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -17334,7 +17379,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -17344,7 +17391,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -17443,32 +17490,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C17" s="15">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3</v>
+      </c>
       <c r="I17" s="21">
         <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
-      </c>
-      <c r="K17" s="21">
-        <v>82</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -17478,21 +17527,21 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -17502,23 +17551,21 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>2</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>16</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -17528,37 +17575,35 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
-      </c>
-      <c r="K20" s="21">
-        <v>48</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -17568,29 +17613,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
+      <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18">
-        <v>44</v>
-      </c>
-      <c r="K21" s="18">
-        <v>5</v>
-      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -17666,19 +17701,23 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>3</v>
+      </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -17689,32 +17728,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
         <v>2</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>14</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
-      </c>
-      <c r="K26" s="21">
-        <v>28</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -17748,29 +17789,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
-      </c>
-      <c r="K28" s="21">
-        <v>7</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -17780,7 +17819,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -17792,7 +17833,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -17803,12 +17844,12 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -17818,7 +17859,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -18013,19 +18054,19 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
@@ -18033,27 +18074,27 @@
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -18067,6 +18108,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -18505,14 +18549,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18557,16 +18601,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -18649,25 +18691,21 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -18709,30 +18747,18 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -18919,30 +18945,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
-      </c>
-      <c r="C17" s="15">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21">
+        <v>408</v>
+      </c>
+      <c r="J17" s="21">
+        <v>24</v>
+      </c>
+      <c r="K17" s="21">
         <v>56</v>
       </c>
-      <c r="J17" s="21">
-        <v>32</v>
-      </c>
-      <c r="K17" s="21">
-        <v>88</v>
-      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -18954,7 +18986,9 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -18964,7 +18998,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -18979,14 +19013,18 @@
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>12</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -18997,36 +19035,36 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
         <v>10</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -19036,23 +19074,35 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
+      <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
+      <c r="J21" s="18">
+        <v>32</v>
+      </c>
+      <c r="K21" s="18">
+        <v>4</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -19128,23 +19178,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
-      <c r="J25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
       <c r="K25" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -19155,32 +19213,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -19214,27 +19272,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21">
+        <v>144</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -19267,26 +19323,20 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
-        <v>2</v>
-      </c>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -19300,17 +19350,17 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -19483,47 +19533,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -19973,4 +20023,2940 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42165</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21">
+        <v>336</v>
+      </c>
+      <c r="J17" s="21">
+        <v>4</v>
+      </c>
+      <c r="K17" s="21">
+        <v>82</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>80</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>48</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>3</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>25</v>
+      </c>
+      <c r="I26" s="21">
+        <v>592</v>
+      </c>
+      <c r="J26" s="21">
+        <v>96</v>
+      </c>
+      <c r="K26" s="21">
+        <v>28</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
+      <c r="J28" s="21">
+        <v>104</v>
+      </c>
+      <c r="K28" s="21">
+        <v>7</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>13</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>1072</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>616</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="4" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="7-22-15" sheetId="51" r:id="rId14"/>
     <sheet name="7-29-15" sheetId="52" r:id="rId15"/>
     <sheet name="8-5-15" sheetId="53" r:id="rId16"/>
+    <sheet name="8-11-15" sheetId="54" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -38,6 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'7-22-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'7-29-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'7-9-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'8-11-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'8-5-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -11129,7 +11131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
@@ -12621,124 +12623,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12753,7 +12645,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -12783,14 +12675,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42227</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -12873,21 +12765,29 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="21">
+        <v>2</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -12928,19 +12828,31 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <v>6</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="18">
+        <v>8</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -12999,14 +12911,18 @@
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="17">
         <v>8</v>
@@ -13016,25 +12932,33 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>262</v>
+      </c>
+      <c r="C12" s="15">
+        <v>12</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21">
+        <v>7</v>
+      </c>
+      <c r="G12" s="21">
+        <v>208</v>
+      </c>
+      <c r="H12" s="21">
         <v>1</v>
       </c>
-      <c r="G12" s="21">
-        <v>28</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>40</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>549</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -13132,27 +13056,33 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>20</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>38</v>
+      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21">
-        <v>648</v>
+        <v>4</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21">
+        <v>13</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>80</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -13171,10 +13101,12 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -13186,9 +13118,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -13198,7 +13128,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -13208,33 +13138,35 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>2</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21"/>
+        <v>237</v>
+      </c>
+      <c r="D20" s="15">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>5</v>
+      </c>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="21">
+        <v>87</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -13244,13 +13176,13 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>7</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -13258,7 +13190,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -13336,23 +13268,19 @@
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -13363,30 +13291,24 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="21">
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>3</v>
+      </c>
+      <c r="I26" s="21">
+        <v>52</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21">
         <v>4</v>
       </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="21">
-        <v>22</v>
-      </c>
-      <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -13419,18 +13341,26 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <v>3</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="21">
+        <v>8</v>
+      </c>
+      <c r="J28" s="21">
+        <v>27</v>
+      </c>
+      <c r="K28" s="21">
+        <v>6</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -13463,20 +13393,30 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="15">
+        <v>13</v>
+      </c>
+      <c r="D30" s="15">
+        <v>8</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>18</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="J30" s="21">
+        <v>3</v>
+      </c>
+      <c r="K30" s="21">
+        <v>5</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -13486,19 +13426,35 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="15">
+        <v>52</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21">
+        <v>26</v>
+      </c>
+      <c r="G31" s="21">
+        <v>28</v>
+      </c>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="I31" s="21">
+        <v>188</v>
+      </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>51</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -13671,47 +13627,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>360</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>440</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>1813</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -14163,14 +14119,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14215,7 +14281,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -14364,9 +14430,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -14374,7 +14438,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -14450,19 +14514,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -14472,7 +14532,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -14570,39 +14630,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -14616,9 +14664,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -14626,7 +14672,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -14638,19 +14684,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -14661,34 +14707,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -14698,7 +14742,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -14707,12 +14753,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -14788,25 +14832,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -14816,33 +14860,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -14881,16 +14923,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -14922,23 +14960,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -15020,9 +15056,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -15030,7 +15064,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -15135,47 +15169,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -15627,14 +15661,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15679,7 +15713,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -15773,7 +15807,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -15781,7 +15817,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -15822,15 +15858,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -15838,7 +15872,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -15914,19 +15948,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -16025,34 +16069,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -16064,11 +16112,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -16076,7 +16124,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -16087,24 +16135,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -16115,32 +16159,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -16156,15 +16202,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -16240,21 +16286,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -16265,38 +16315,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -16329,26 +16373,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -16380,25 +16420,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -16480,7 +16518,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -16488,7 +16528,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -16593,47 +16633,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -17085,14 +17125,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17107,7 +17147,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -17137,7 +17177,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -17146,9 +17186,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -17234,9 +17271,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -17244,7 +17279,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -17285,23 +17320,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -17379,9 +17414,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -17391,7 +17424,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -17490,34 +17523,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -17529,19 +17562,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -17552,20 +17585,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -17576,34 +17613,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -17619,13 +17654,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -17701,23 +17738,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -17728,34 +17763,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -17789,27 +17828,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -17819,9 +17856,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -17833,7 +17868,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -17844,22 +17879,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -18054,47 +18091,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -18108,9 +18145,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -18549,14 +18583,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18601,7 +18635,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -18610,6 +18644,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -18750,15 +18787,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -18836,7 +18877,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -18846,7 +18889,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -18945,36 +18988,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -18986,19 +19027,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -19014,17 +19055,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -19035,36 +19074,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -19074,35 +19111,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -19179,30 +19200,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -19213,32 +19226,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -19272,25 +19287,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -19300,7 +19317,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -19312,7 +19331,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -19323,9 +19342,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -19336,7 +19357,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -19350,9 +19371,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -19360,7 +19379,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -19533,47 +19552,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -19587,6 +19606,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -20025,14 +20047,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20077,16 +20099,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -20180,12 +20200,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -20227,9 +20245,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -20237,12 +20253,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -20429,32 +20443,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -20464,11 +20482,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -20478,7 +20496,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -20488,23 +20506,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -20514,37 +20532,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -20558,25 +20576,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -20652,19 +20676,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -20675,32 +20711,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -20734,29 +20770,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -20789,12 +20821,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -20804,7 +20834,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -20818,7 +20848,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -20826,7 +20858,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -20999,47 +21031,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -21491,14 +21523,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21543,16 +21575,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -21635,25 +21667,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -21696,29 +21726,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -21905,30 +21927,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -21938,7 +21962,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -21950,7 +21976,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -21960,7 +21986,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -21968,11 +21996,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -21982,37 +22012,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -22022,23 +22052,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -22121,16 +22157,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -22141,32 +22173,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -22200,7 +22232,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -22209,18 +22241,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -22253,26 +22287,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -22291,12 +22321,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -22469,47 +22497,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -22959,4 +22987,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="4" activeTab="16"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="4" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="7-29-15" sheetId="52" r:id="rId15"/>
     <sheet name="8-5-15" sheetId="53" r:id="rId16"/>
     <sheet name="8-11-15" sheetId="54" r:id="rId17"/>
+    <sheet name="8-19-15" sheetId="55" r:id="rId18"/>
+    <sheet name="8-26-15" sheetId="56" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -40,6 +42,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'7-29-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'7-9-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'8-11-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'8-19-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'8-26-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'8-5-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -12627,7 +12631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
@@ -14119,124 +14123,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14251,7 +14145,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -14281,14 +14175,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42235</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -14374,18 +14268,24 @@
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -14497,14 +14397,18 @@
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>8</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>8</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M11" s="17">
         <v>8</v>
@@ -14514,25 +14418,35 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="15">
+        <v>108</v>
+      </c>
+      <c r="C12" s="15">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="21">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>88</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -14630,27 +14544,29 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>20</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>160</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>648</v>
+        <v>40</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21">
+        <v>12</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>268</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -14661,8 +14577,12 @@
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -14672,7 +14592,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -14684,9 +14604,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -14696,7 +14614,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -14707,32 +14625,38 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>236</v>
+      </c>
+      <c r="D20" s="15">
+        <v>6</v>
+      </c>
       <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21">
+        <v>51</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>1209</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -14743,20 +14667,26 @@
         <v>17</v>
       </c>
       <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="19">
+        <v>20</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -14833,24 +14763,18 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -14861,30 +14785,26 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>2</v>
+      </c>
+      <c r="I26" s="21">
+        <v>40</v>
+      </c>
+      <c r="J26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>4</v>
-      </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="21">
-        <v>22</v>
-      </c>
-      <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>5</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -14917,18 +14837,30 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="15">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2</v>
+      </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="G28" s="21">
+        <v>40</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21">
+        <v>48</v>
+      </c>
       <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="K28" s="21">
+        <v>3</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -14940,7 +14872,9 @@
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -14950,7 +14884,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -14961,20 +14895,28 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="G30" s="21">
+        <v>40</v>
+      </c>
+      <c r="H30" s="21">
+        <v>3</v>
+      </c>
+      <c r="I30" s="21">
+        <v>16</v>
+      </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -14984,19 +14926,33 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>16</v>
+      </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="F31" s="21">
+        <v>3</v>
+      </c>
+      <c r="G31" s="21">
+        <v>16</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
+        <v>54</v>
+      </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>16</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -15169,19 +15125,19 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
@@ -15189,27 +15145,27 @@
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>528</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>590</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>2178</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -15661,14 +15617,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15683,7 +15639,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -15713,14 +15669,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42242</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -15805,19 +15761,23 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -15861,18 +15821,20 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18">
+        <v>4</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -15929,16 +15891,22 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>24</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
       <c r="L11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M11" s="17">
         <v>8</v>
@@ -15949,10 +15917,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="15">
-        <v>2</v>
+        <v>216</v>
       </c>
       <c r="C12" s="15">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="21">
@@ -15960,17 +15928,19 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>357</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -16069,38 +16039,28 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -16114,9 +16074,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -16124,7 +16082,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -16143,12 +16101,10 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -16159,34 +16115,38 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
+        <v>512</v>
       </c>
       <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="K20" s="21">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>1318</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -16202,15 +16162,17 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>9</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -16286,25 +16248,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>2</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -16315,32 +16273,28 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>8</v>
+      </c>
+      <c r="I26" s="21">
+        <v>20</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21">
         <v>1</v>
       </c>
-      <c r="F26" s="21">
-        <v>11</v>
-      </c>
-      <c r="G26" s="21">
-        <v>58</v>
-      </c>
-      <c r="H26" s="21">
-        <v>38</v>
-      </c>
-      <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
-      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -16372,23 +16326,37 @@
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="15">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>72</v>
+      </c>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
       <c r="I28" s="21">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J28" s="21">
-        <v>1</v>
-      </c>
-      <c r="K28" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="K28" s="21">
+        <v>2</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -16420,23 +16388,29 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="15">
+        <v>64</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21">
-        <v>8</v>
-      </c>
-      <c r="H30" s="21"/>
+        <v>232</v>
+      </c>
+      <c r="H30" s="21">
+        <v>3</v>
+      </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -16446,19 +16420,27 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>16</v>
+      </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="I31" s="21">
+        <v>16</v>
+      </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>5</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -16518,9 +16500,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -16528,7 +16508,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -16633,47 +16613,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>512</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>586</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>928</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>2520</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -17125,14 +17105,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17177,7 +17267,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -17271,7 +17361,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -17279,7 +17371,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -17320,14 +17412,10 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -17336,7 +17424,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -17416,15 +17504,21 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>28</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -17522,35 +17616,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>28</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="21">
-        <v>2</v>
-      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
-      </c>
-      <c r="J17" s="21">
-        <v>7</v>
-      </c>
-      <c r="K17" s="21">
-        <v>99</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -17562,9 +17648,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -17574,7 +17658,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -17585,16 +17669,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -17602,7 +17682,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -17616,29 +17696,29 @@
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
-      </c>
-      <c r="D20" s="15">
-        <v>8</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="21">
+        <v>72</v>
+      </c>
       <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -17648,21 +17728,21 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -17739,20 +17819,24 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="C25" s="19">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
         <v>1</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>16</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -17762,39 +17846,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
         <v>4</v>
       </c>
-      <c r="C26" s="15">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
-      <c r="E26" s="21">
-        <v>3</v>
-      </c>
-      <c r="F26" s="21">
-        <v>11</v>
-      </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
-      </c>
-      <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -17827,26 +17903,18 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
-      <c r="I28" s="21">
-        <v>64</v>
-      </c>
-      <c r="J28" s="21">
-        <v>15</v>
-      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -17879,24 +17947,20 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L30" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -18091,47 +18155,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -18583,14 +18647,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18605,7 +18669,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -18635,7 +18699,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -18644,9 +18708,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -18788,18 +18849,16 @@
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -18875,21 +18934,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -18988,34 +19055,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
+      <c r="I17" s="21">
         <v>15</v>
       </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="21">
-        <v>2</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
-      <c r="I17" s="21">
-        <v>336</v>
-      </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="K17" s="21">
+        <v>14</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -19029,17 +19100,17 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -19054,16 +19125,16 @@
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -19074,34 +19145,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
+      <c r="F20" s="21"/>
       <c r="G20" s="21">
         <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I20" s="21">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
+        <v>3</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -19120,10 +19191,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -19200,22 +19273,24 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>3</v>
-      </c>
-      <c r="C25" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -19228,32 +19303,30 @@
       <c r="B26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21">
         <v>1</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -19286,28 +19359,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>9</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>2</v>
-      </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -19317,9 +19384,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -19331,7 +19396,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -19341,23 +19406,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>2</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -19439,7 +19504,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -19447,7 +19514,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -19552,15 +19619,15 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
@@ -19568,31 +19635,31 @@
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -19606,9 +19673,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -20047,14 +20111,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20069,7 +20133,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -20099,7 +20163,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -20193,9 +20257,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -20203,7 +20265,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -20244,10 +20306,14 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -20256,7 +20322,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -20443,36 +20509,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>7</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C17" s="15">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>69</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K17" s="21">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -20485,7 +20549,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -20496,7 +20560,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -20507,22 +20571,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>5</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -20533,36 +20599,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
         <v>10</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="21">
-        <v>112</v>
-      </c>
-      <c r="H20" s="21">
-        <v>6</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
+      <c r="I20" s="21"/>
       <c r="J20" s="21">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="K20" s="21">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -20572,35 +20634,21 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
         <v>2</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
-      <c r="L21" s="26">
-        <f t="shared" si="0"/>
-        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -20676,31 +20724,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="L25" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -20711,32 +20749,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
+      <c r="E26" s="21">
+        <v>3</v>
+      </c>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="K26" s="21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -20770,25 +20814,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="21">
+        <v>2</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -20821,20 +20865,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -20848,9 +20896,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -20858,7 +20904,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -21031,47 +21077,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -21523,14 +21569,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21575,17 +21621,18 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -21678,12 +21725,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -21725,22 +21770,22 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -21818,7 +21863,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -21828,7 +21875,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -21927,32 +21974,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C17" s="15">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3</v>
+      </c>
       <c r="I17" s="21">
         <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
-      </c>
-      <c r="K17" s="21">
-        <v>82</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -21962,21 +22011,21 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -21986,23 +22035,21 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>2</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>16</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -22012,37 +22059,35 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
-      </c>
-      <c r="K20" s="21">
-        <v>48</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -22052,29 +22097,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
+      <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18">
-        <v>44</v>
-      </c>
-      <c r="K21" s="18">
-        <v>5</v>
-      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -22150,19 +22185,23 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>3</v>
+      </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -22173,32 +22212,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21">
         <v>2</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>14</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
-      </c>
-      <c r="K26" s="21">
-        <v>28</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -22232,29 +22273,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
-      </c>
-      <c r="K28" s="21">
-        <v>7</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -22264,7 +22303,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -22276,7 +22317,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -22287,12 +22328,12 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -22302,7 +22343,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -22497,19 +22538,19 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
@@ -22517,27 +22558,27 @@
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -22551,6 +22592,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -22989,14 +23033,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23041,16 +23085,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -23133,25 +23175,21 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -23193,30 +23231,18 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -23403,30 +23429,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
-      </c>
-      <c r="C17" s="15">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21">
+        <v>408</v>
+      </c>
+      <c r="J17" s="21">
+        <v>24</v>
+      </c>
+      <c r="K17" s="21">
         <v>56</v>
       </c>
-      <c r="J17" s="21">
-        <v>32</v>
-      </c>
-      <c r="K17" s="21">
-        <v>88</v>
-      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -23438,7 +23470,9 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -23448,7 +23482,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -23463,14 +23497,18 @@
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>12</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -23481,36 +23519,36 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
         <v>10</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -23520,23 +23558,35 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
+      <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
+      <c r="J21" s="18">
+        <v>32</v>
+      </c>
+      <c r="K21" s="18">
+        <v>4</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -23612,23 +23662,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
-      <c r="J25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
       <c r="K25" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -23639,32 +23697,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -23698,27 +23756,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21">
+        <v>144</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -23751,26 +23807,20 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
-        <v>2</v>
-      </c>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -23784,17 +23834,17 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -23967,47 +24017,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -24457,4 +24507,2940 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42165</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21">
+        <v>336</v>
+      </c>
+      <c r="J17" s="21">
+        <v>4</v>
+      </c>
+      <c r="K17" s="21">
+        <v>82</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>80</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>48</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>3</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>25</v>
+      </c>
+      <c r="I26" s="21">
+        <v>592</v>
+      </c>
+      <c r="J26" s="21">
+        <v>96</v>
+      </c>
+      <c r="K26" s="21">
+        <v>28</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
+      <c r="J28" s="21">
+        <v>104</v>
+      </c>
+      <c r="K28" s="21">
+        <v>7</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>13</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>1072</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>616</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="4" activeTab="18"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="8-11-15" sheetId="54" r:id="rId17"/>
     <sheet name="8-19-15" sheetId="55" r:id="rId18"/>
     <sheet name="8-26-15" sheetId="56" r:id="rId19"/>
+    <sheet name="9-2-15" sheetId="57" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -45,6 +46,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">'8-19-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'8-26-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'8-5-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'9-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -15621,7 +15623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L41" sqref="L41"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
@@ -17215,14 +17217,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17237,7 +17239,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -17267,14 +17269,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42249</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -17359,19 +17361,29 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="21">
+        <v>7</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+      <c r="J6" s="21">
+        <v>12</v>
+      </c>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -17412,19 +17424,27 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18">
+        <v>16</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -17481,16 +17501,22 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18">
+        <v>3</v>
+      </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>4</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="17">
         <v>8</v>
@@ -17500,25 +17526,33 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="15">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>9</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="21">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
+      <c r="I12" s="21">
+        <v>12</v>
+      </c>
+      <c r="J12" s="21">
+        <v>24</v>
+      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -17616,27 +17650,31 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>16</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>40</v>
+      </c>
       <c r="H17" s="21">
         <v>1</v>
       </c>
       <c r="I17" s="21">
-        <v>648</v>
-      </c>
-      <c r="J17" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="J17" s="21">
+        <v>60</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>147</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -17653,12 +17691,14 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -17670,9 +17710,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -17682,7 +17720,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -17693,32 +17731,38 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="D20" s="15">
+        <v>4</v>
+      </c>
       <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="21">
+        <v>7</v>
+      </c>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>248</v>
+      </c>
+      <c r="K20" s="21">
+        <v>33</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>1086</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -17728,21 +17772,25 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
+        <v>7</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>3</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -17819,24 +17867,20 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -17847,30 +17891,28 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21">
         <v>8</v>
       </c>
-      <c r="D26" s="15">
+      <c r="H26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>4</v>
-      </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="I26" s="21">
         <v>22</v>
       </c>
-      <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="J26" s="21">
+        <v>20</v>
+      </c>
+      <c r="K26" s="21">
+        <v>2</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -17902,19 +17944,31 @@
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15">
+        <v>2</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>16</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
+      <c r="I28" s="21">
+        <v>12</v>
+      </c>
+      <c r="J28" s="21">
+        <v>76</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -17947,20 +18001,28 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="G30" s="21">
+        <v>64</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="J30" s="21">
+        <v>16</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -17970,19 +18032,35 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21">
+        <v>7</v>
+      </c>
+      <c r="G31" s="21">
+        <v>24</v>
+      </c>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="I31" s="21">
+        <v>20</v>
+      </c>
+      <c r="J31" s="21">
+        <v>16</v>
+      </c>
+      <c r="K31" s="21">
+        <v>4</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -18155,47 +18233,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>608</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>294</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>1869</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -18647,14 +18725,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18699,7 +18777,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -18848,9 +18926,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -18858,7 +18934,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -18934,19 +19010,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -18956,7 +19028,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -19054,39 +19126,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -19100,9 +19160,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -19110,7 +19168,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -19122,19 +19180,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -19145,34 +19203,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -19182,7 +19238,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -19191,12 +19249,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -19272,25 +19328,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -19300,33 +19356,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -19365,16 +19419,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -19406,23 +19456,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -19504,9 +19552,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -19514,7 +19560,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -19619,47 +19665,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -20111,14 +20157,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20163,7 +20209,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -20257,7 +20303,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -20265,7 +20313,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -20306,15 +20354,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -20322,7 +20368,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -20398,19 +20444,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -20509,34 +20565,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -20548,11 +20608,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -20560,7 +20620,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -20571,24 +20631,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -20599,32 +20655,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -20640,15 +20698,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -20724,21 +20782,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -20749,38 +20811,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -20813,26 +20869,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -20864,25 +20916,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -20964,7 +21014,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -20972,7 +21024,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -21077,47 +21129,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -21569,14 +21621,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21591,7 +21643,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -21621,7 +21673,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -21630,9 +21682,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -21718,9 +21767,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -21728,7 +21775,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -21769,23 +21816,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -21863,9 +21910,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -21875,7 +21920,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -21974,34 +22019,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -22013,19 +22058,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -22036,20 +22081,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -22060,34 +22109,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -22103,13 +22150,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -22185,23 +22234,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -22212,34 +22259,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -22273,27 +22324,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -22303,9 +22352,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -22317,7 +22364,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -22328,22 +22375,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -22538,47 +22587,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -22592,9 +22641,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -23033,14 +23079,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23085,7 +23131,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -23094,6 +23140,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -23234,15 +23283,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -23320,7 +23373,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -23330,7 +23385,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -23429,36 +23484,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -23470,19 +23523,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -23498,17 +23551,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -23519,36 +23570,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -23558,35 +23607,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -23663,30 +23696,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -23697,32 +23722,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -23756,25 +23783,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -23784,7 +23813,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -23796,7 +23827,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -23807,9 +23838,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -23820,7 +23853,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -23834,9 +23867,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -23844,7 +23875,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -24017,47 +24048,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -24071,6 +24102,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -24509,14 +24543,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -24561,16 +24595,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -24664,12 +24696,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -24711,9 +24741,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -24721,12 +24749,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -24913,32 +24939,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -24948,11 +24978,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -24962,7 +24992,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -24972,23 +25002,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -24998,37 +25028,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -25042,25 +25072,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -25136,19 +25172,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -25159,32 +25207,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -25218,29 +25266,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -25273,12 +25317,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -25288,7 +25330,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -25302,7 +25344,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -25310,7 +25354,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -25483,47 +25527,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -25975,14 +26019,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -26027,16 +26071,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -26119,25 +26163,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -26180,29 +26222,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -26389,30 +26423,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -26422,7 +26458,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -26434,7 +26472,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -26444,7 +26482,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -26452,11 +26492,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -26466,37 +26508,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -26506,23 +26548,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -26605,16 +26653,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -26625,32 +26669,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -26684,7 +26728,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -26693,18 +26737,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -26737,26 +26783,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -26775,12 +26817,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -26953,47 +26993,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -27443,4 +27483,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="8" activeTab="19"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="8-19-15" sheetId="55" r:id="rId18"/>
     <sheet name="8-26-15" sheetId="56" r:id="rId19"/>
     <sheet name="9-2-15" sheetId="57" r:id="rId20"/>
+    <sheet name="9-17-15" sheetId="58" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -46,6 +47,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">'8-19-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'8-26-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'8-5-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'9-17-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">'9-2-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -17221,7 +17223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L41" sqref="L41"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
@@ -18725,14 +18727,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18747,7 +18749,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -18777,14 +18779,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42264</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -18869,10 +18871,14 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
       <c r="F6" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -18881,7 +18887,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -19010,25 +19016,33 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="15">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>9</v>
+      </c>
+      <c r="E12" s="21">
+        <v>7</v>
+      </c>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="21">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <v>20</v>
+      </c>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>1</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -19126,27 +19140,31 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>36</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>48</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>648</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="J17" s="21">
+        <v>48</v>
+      </c>
+      <c r="K17" s="21">
+        <v>3</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>215</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -19180,9 +19198,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -19192,7 +19208,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -19203,32 +19219,36 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>980</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="15">
+        <v>12</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>15</v>
+      </c>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>736</v>
+      </c>
+      <c r="K20" s="21">
+        <v>23</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>2334</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -19238,21 +19258,23 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>8</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -19329,24 +19351,18 @@
         <v>13</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -19357,30 +19373,22 @@
         <v>12</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="15">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>4</v>
-      </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I26" s="21">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -19412,19 +19420,33 @@
       <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="15">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15">
+        <v>11</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
+      <c r="H28" s="21">
+        <v>4</v>
+      </c>
+      <c r="I28" s="21">
+        <v>84</v>
+      </c>
+      <c r="J28" s="21">
+        <v>112</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -19457,20 +19479,36 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
+        <v>32</v>
+      </c>
+      <c r="C30" s="15">
+        <v>7</v>
+      </c>
+      <c r="D30" s="15">
+        <v>12</v>
+      </c>
+      <c r="E30" s="21">
         <v>1</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="21">
+        <v>2</v>
+      </c>
+      <c r="G30" s="21">
+        <v>32</v>
+      </c>
       <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="I30" s="21">
+        <v>20</v>
+      </c>
+      <c r="J30" s="21">
+        <v>72</v>
+      </c>
+      <c r="K30" s="21">
+        <v>4</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -19480,19 +19518,31 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="15">
+        <v>52</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3</v>
+      </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="21">
+        <v>14</v>
+      </c>
+      <c r="F31" s="21">
+        <v>3</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="I31" s="21">
+        <v>44</v>
+      </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -19665,47 +19715,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>1184</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>612</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>968</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>3445</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -20157,14 +20207,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20209,7 +20259,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -20358,9 +20408,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -20368,7 +20416,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -20444,19 +20492,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -20466,7 +20510,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -20564,39 +20608,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -20610,9 +20642,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -20620,7 +20650,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -20632,19 +20662,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -20655,34 +20685,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -20692,7 +20720,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -20701,12 +20731,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -20782,25 +20810,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -20810,33 +20838,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -20875,16 +20901,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -20916,23 +20938,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -21014,9 +21034,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -21024,7 +21042,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -21129,47 +21147,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -21621,14 +21639,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21673,7 +21691,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -21767,7 +21785,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -21775,7 +21795,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -21816,15 +21836,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -21832,7 +21850,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -21908,19 +21926,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -22019,34 +22047,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -22058,11 +22090,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -22070,7 +22102,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -22081,24 +22113,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -22109,32 +22137,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -22150,15 +22180,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -22234,21 +22264,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -22259,38 +22293,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -22323,26 +22351,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -22374,25 +22398,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -22474,7 +22496,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -22482,7 +22506,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -22587,47 +22611,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -23079,14 +23103,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23101,7 +23125,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -23131,7 +23155,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -23140,9 +23164,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -23228,9 +23249,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -23238,7 +23257,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -23279,23 +23298,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -23373,9 +23392,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -23385,7 +23402,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -23484,34 +23501,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -23523,19 +23540,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -23546,20 +23563,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -23570,34 +23591,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -23613,13 +23632,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -23695,23 +23716,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -23722,34 +23741,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -23783,27 +23806,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -23813,9 +23834,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -23827,7 +23846,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -23838,22 +23857,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -24048,47 +24069,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -24102,9 +24123,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -24543,14 +24561,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -24595,7 +24613,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -24604,6 +24622,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -24744,15 +24765,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -24830,7 +24855,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -24840,7 +24867,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -24939,36 +24966,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -24980,19 +25005,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -25008,17 +25033,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -25029,36 +25052,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -25068,35 +25089,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -25173,30 +25178,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -25207,32 +25204,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -25266,25 +25265,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -25294,7 +25295,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -25306,7 +25309,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -25317,9 +25320,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -25330,7 +25335,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -25344,9 +25349,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -25354,7 +25357,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -25527,47 +25530,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -25581,6 +25584,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -26019,14 +26025,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -26071,16 +26077,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -26174,12 +26178,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -26221,9 +26223,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -26231,12 +26231,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -26423,32 +26421,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -26458,11 +26460,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -26472,7 +26474,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -26482,23 +26484,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -26508,37 +26510,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -26552,25 +26554,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -26646,19 +26654,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -26669,32 +26689,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -26728,29 +26748,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -26783,12 +26799,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -26798,7 +26812,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -26812,7 +26826,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -26820,7 +26836,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -26993,47 +27009,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -27485,14 +27501,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27537,16 +27553,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -27629,25 +27645,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -27690,29 +27704,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -27899,30 +27905,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -27932,7 +27940,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -27944,7 +27954,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -27954,7 +27964,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -27962,11 +27974,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -27976,37 +27990,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -28016,23 +28030,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -28115,16 +28135,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -28135,32 +28151,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -28194,7 +28210,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -28203,18 +28219,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -28247,26 +28265,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -28285,12 +28299,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -28463,47 +28475,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -28953,4 +28965,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>49</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <v>32</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="M17" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="15">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21">
+        <v>4</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21">
+        <v>32</v>
+      </c>
+      <c r="J20" s="21">
+        <v>352</v>
+      </c>
+      <c r="K20" s="21">
+        <v>98</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="M20" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18">
+        <v>4</v>
+      </c>
+      <c r="L25" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>18</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>7</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>7</v>
+      </c>
+      <c r="I26" s="21">
+        <v>608</v>
+      </c>
+      <c r="J26" s="21">
+        <v>152</v>
+      </c>
+      <c r="K26" s="21">
+        <v>12</v>
+      </c>
+      <c r="L26" s="26">
+        <f t="shared" si="0"/>
+        <v>808</v>
+      </c>
+      <c r="M26" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21">
+        <v>120</v>
+      </c>
+      <c r="K28" s="21">
+        <v>8</v>
+      </c>
+      <c r="L28" s="26">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="M28" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
+        <v>2</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <v>2</v>
+      </c>
+      <c r="L31" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>54</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>88</v>
+      </c>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>70</v>
+      </c>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>71</v>
+      </c>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>80</v>
+      </c>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>82</v>
+      </c>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>100</v>
+      </c>
+      <c r="S38" s="35"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <f>SUM(B6:B38)</f>
+        <v>130</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
+        <v>69</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L39" s="16">
+        <f t="shared" si="1"/>
+        <v>1902</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="P51" s="35"/>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="P56" s="35"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
+++ b/original_spreadsheets/2015/Alachua County Light trap data 2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="8" activeTab="20"/>
+    <workbookView xWindow="1530" yWindow="-50" windowWidth="15480" windowHeight="7990" tabRatio="833" firstSheet="9" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="40" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="8-26-15" sheetId="56" r:id="rId19"/>
     <sheet name="9-2-15" sheetId="57" r:id="rId20"/>
     <sheet name="9-17-15" sheetId="58" r:id="rId21"/>
+    <sheet name="9-24-15" sheetId="59" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'5-13-15'!$A$1:$L$41</definedName>
@@ -49,6 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="15">'8-5-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="20">'9-17-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">'9-2-15'!$A$1:$L$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'9-24-15'!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">blank!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="62">
   <si>
     <t>Totals</t>
   </si>
@@ -18731,7 +18733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L41" sqref="L41"/>
       <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
@@ -20207,14 +20209,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B43" sqref="B43"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection activeCell="L41" sqref="L41"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20229,7 +20231,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -20259,14 +20261,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42130</v>
+        <v>42271</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -20351,19 +20353,29 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
       <c r="F6" s="21">
+        <v>7</v>
+      </c>
+      <c r="G6" s="21">
+        <v>8</v>
+      </c>
+      <c r="H6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="21">
+        <v>16</v>
+      </c>
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -20406,7 +20418,9 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -20416,7 +20430,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -20473,7 +20487,9 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -20482,7 +20498,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="17">
         <v>8</v>
@@ -20492,25 +20508,39 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="15">
+        <v>168</v>
+      </c>
+      <c r="C12" s="15">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15">
+        <v>17</v>
+      </c>
+      <c r="E12" s="21">
+        <v>5</v>
+      </c>
       <c r="F12" s="21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G12" s="21">
-        <v>28</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>26</v>
+      </c>
+      <c r="J12" s="21">
+        <v>24</v>
+      </c>
       <c r="K12" s="21">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -20608,27 +20638,29 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>104</v>
+      </c>
       <c r="C17" s="15">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
+        <v>80</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>648</v>
+        <v>26</v>
       </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21">
+        <v>16</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>238</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -20639,18 +20671,24 @@
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="H18" s="21">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -20662,9 +20700,7 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19">
-        <v>4</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -20674,7 +20710,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -20685,32 +20721,38 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>512</v>
       </c>
       <c r="C20" s="15">
-        <v>51</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>256</v>
+      </c>
+      <c r="D20" s="15">
+        <v>38</v>
+      </c>
       <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="21">
+        <v>7</v>
+      </c>
       <c r="G20" s="21">
-        <v>5</v>
+        <v>528</v>
       </c>
       <c r="H20" s="21">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="I20" s="21">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="J20" s="21">
-        <v>36</v>
-      </c>
-      <c r="K20" s="21"/>
+        <v>1112</v>
+      </c>
+      <c r="K20" s="21">
+        <v>344</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>3049</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -20720,13 +20762,13 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -20734,7 +20776,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -20810,25 +20852,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19">
-        <v>6</v>
-      </c>
+      <c r="B25" s="19">
+        <v>8</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>16</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -20838,31 +20876,29 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15">
+      <c r="B26" s="15">
         <v>8</v>
       </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>4</v>
-      </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>88</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="J26" s="21">
+        <v>16</v>
+      </c>
+      <c r="K26" s="21">
+        <v>8</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -20896,17 +20932,29 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15">
+        <v>4</v>
+      </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>32</v>
+      </c>
+      <c r="H28" s="21">
+        <v>6</v>
+      </c>
+      <c r="I28" s="21">
+        <v>22</v>
+      </c>
+      <c r="J28" s="21">
+        <v>8</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -20939,20 +20987,34 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="C30" s="15">
+        <v>60</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="F30" s="21">
+        <v>2</v>
+      </c>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21">
+        <v>4</v>
+      </c>
+      <c r="J30" s="21">
+        <v>16</v>
+      </c>
+      <c r="K30" s="21">
+        <v>56</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -20962,19 +21024,35 @@
       <c r="A31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>40</v>
+      </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="21">
+        <v>9</v>
+      </c>
+      <c r="F31" s="21">
+        <v>20</v>
+      </c>
+      <c r="G31" s="21">
+        <v>8</v>
+      </c>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="I31" s="21">
+        <v>10</v>
+      </c>
+      <c r="J31" s="21">
+        <v>8</v>
+      </c>
+      <c r="K31" s="21">
+        <v>112</v>
+      </c>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -21147,47 +21225,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>7</v>
+        <v>1032</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>712</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>824</v>
+        <v>246</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1200</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>4469</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -21639,14 +21717,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21691,7 +21769,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -21840,9 +21918,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -21850,7 +21926,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -21926,19 +22002,15 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="21">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
       <c r="G12" s="21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -21948,7 +22020,7 @@
       </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -22046,39 +22118,27 @@
       <c r="A17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15">
-        <v>53</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="F17" s="21">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21">
-        <v>76</v>
-      </c>
-      <c r="H17" s="21">
-        <v>13</v>
-      </c>
       <c r="I17" s="21">
-        <v>15</v>
-      </c>
-      <c r="J17" s="21">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21">
-        <v>14</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -22092,9 +22152,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21">
-        <v>1</v>
-      </c>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -22102,7 +22160,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -22114,19 +22172,19 @@
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
+      <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -22137,34 +22195,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>87</v>
-      </c>
-      <c r="D20" s="15">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H20" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="21">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J20" s="21">
-        <v>69</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -22174,7 +22230,9 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
@@ -22183,12 +22241,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -22264,25 +22320,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -22292,33 +22348,31 @@
       <c r="A26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="15">
-        <v>3</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
         <v>1</v>
       </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" s="21">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" s="21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="21">
-        <v>38</v>
-      </c>
-      <c r="J26" s="21">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -22357,16 +22411,12 @@
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21">
-        <v>32</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -22398,23 +22448,21 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>8</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -22496,9 +22544,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -22506,7 +22552,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -22611,47 +22657,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>824</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>1068</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -23103,14 +23149,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23155,7 +23201,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -23249,7 +23295,9 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -23257,7 +23305,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -23298,15 +23346,13 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -23314,7 +23360,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -23390,19 +23436,29 @@
       <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -23501,34 +23557,38 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
       <c r="E17" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
       </c>
       <c r="G17" s="21">
-        <v>4</v>
-      </c>
-      <c r="H17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="H17" s="21">
+        <v>13</v>
+      </c>
       <c r="I17" s="21">
-        <v>1568</v>
+        <v>15</v>
       </c>
       <c r="J17" s="21">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K17" s="21">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>1722</v>
+        <v>221</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -23540,11 +23600,11 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -23552,7 +23612,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -23563,24 +23623,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -23591,32 +23647,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C20" s="15">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D20" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
+        <v>22</v>
+      </c>
+      <c r="H20" s="21">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21">
+        <v>9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>69</v>
+      </c>
+      <c r="K20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="21">
-        <v>10</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9</v>
-      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -23632,15 +23690,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>2</v>
-      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -23716,21 +23774,25 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19">
         <v>1</v>
       </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -23741,38 +23803,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>11</v>
       </c>
       <c r="G26" s="21">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="H26" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="21">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -23805,26 +23861,22 @@
         <v>10</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="15">
-        <v>6</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <v>2</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J28" s="21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -23856,25 +23908,23 @@
       <c r="A30" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>8</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -23956,7 +24006,9 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -23964,7 +24016,7 @@
       <c r="K34" s="18"/>
       <c r="L34" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="17">
         <v>70</v>
@@ -24069,47 +24121,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>96</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>2257</v>
+        <v>712</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -24561,14 +24613,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -24583,7 +24635,7 @@
     <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
@@ -24613,7 +24665,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42151</v>
+        <v>42144</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -24622,9 +24674,6 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -24710,9 +24759,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -24720,7 +24767,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -24761,23 +24808,23 @@
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18">
-        <v>16</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -24855,9 +24902,7 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -24867,7 +24912,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -24966,34 +25011,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="21">
         <v>2</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="21">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>1568</v>
       </c>
       <c r="J17" s="21">
-        <v>64</v>
-      </c>
-      <c r="K17" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="21">
+        <v>99</v>
+      </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1722</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -25005,19 +25050,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -25028,20 +25073,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -25052,34 +25101,32 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="15">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <v>3</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>22</v>
-      </c>
-      <c r="H20" s="21">
-        <v>14</v>
-      </c>
-      <c r="I20" s="21">
-        <v>112</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8</v>
-      </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21">
+        <v>9</v>
+      </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -25095,13 +25142,15 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -25177,23 +25226,21 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>3</v>
-      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -25204,34 +25251,38 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="15">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
       <c r="E26" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="21">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21">
+        <v>36</v>
+      </c>
+      <c r="I26" s="21">
+        <v>240</v>
+      </c>
+      <c r="J26" s="21">
         <v>14</v>
       </c>
-      <c r="H26" s="21">
-        <v>28</v>
-      </c>
-      <c r="I26" s="21">
-        <v>64</v>
-      </c>
-      <c r="J26" s="21">
-        <v>56</v>
-      </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="21">
+        <v>20</v>
+      </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -25265,27 +25316,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="H28" s="21">
-        <v>3</v>
-      </c>
       <c r="I28" s="21">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="J28" s="21">
-        <v>472</v>
+        <v>15</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -25295,9 +25344,7 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -25309,7 +25356,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -25320,22 +25367,24 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -25530,47 +25579,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>736</v>
+        <v>1872</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>41</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1735</v>
+        <v>2257</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -25584,9 +25633,6 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -26025,14 +26071,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -26077,7 +26123,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42157</v>
+        <v>42151</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -26086,6 +26132,9 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -26226,15 +26275,19 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>16</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -26312,7 +26365,9 @@
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -26322,7 +26377,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="17">
         <v>7</v>
@@ -26421,36 +26476,34 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>15</v>
+      </c>
       <c r="D17" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E17" s="21">
-        <v>4</v>
-      </c>
-      <c r="F17" s="21">
         <v>2</v>
       </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="21">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H17" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="21">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>24</v>
-      </c>
-      <c r="K17" s="21">
-        <v>56</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -26462,19 +26515,19 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -26490,17 +26543,15 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <v>12</v>
-      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -26511,36 +26562,34 @@
         <v>47</v>
       </c>
       <c r="B20" s="15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="21">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H20" s="21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21">
         <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>236</v>
-      </c>
-      <c r="K20" s="21">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>197</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -26550,35 +26599,19 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19">
-        <v>2</v>
-      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>16</v>
-      </c>
-      <c r="J21" s="18">
-        <v>32</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -26655,30 +26688,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
         <v>3</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>8</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -26689,32 +26714,34 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" s="21">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="J26" s="21">
-        <v>116</v>
-      </c>
-      <c r="K26" s="21">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>173</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -26748,25 +26775,27 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="21">
+        <v>2</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
       <c r="I28" s="21">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="J28" s="21">
-        <v>44</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>694</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -26776,7 +26805,9 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
@@ -26788,7 +26819,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="17">
         <v>51</v>
@@ -26799,9 +26830,11 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -26812,7 +26845,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -26826,9 +26859,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
+      <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -26836,7 +26867,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -27009,47 +27040,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1903</v>
+        <v>1735</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -27063,6 +27094,9 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="4"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -27501,14 +27535,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27553,16 +27587,14 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42165</v>
+        <v>42157</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -27656,12 +27688,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -27703,9 +27733,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -27713,12 +27741,10 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="18">
-        <v>3</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -27905,32 +27931,36 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="G17" s="21">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>336</v>
+        <v>408</v>
       </c>
       <c r="J17" s="21">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K17" s="21">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -27940,11 +27970,11 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -27954,7 +27984,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -27964,23 +27994,23 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>8</v>
-      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -27990,37 +28020,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>15</v>
+      </c>
       <c r="C20" s="15">
         <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="21">
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" s="21">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="J20" s="21">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="K20" s="21">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -28034,25 +28064,31 @@
         <v>2</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
       <c r="H21" s="18">
         <v>1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>16</v>
+      </c>
       <c r="J21" s="18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -28128,19 +28164,31 @@
       <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18">
+        <v>3</v>
+      </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="18">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -28151,32 +28199,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>3</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="G26" s="21">
+        <v>32</v>
+      </c>
       <c r="H26" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I26" s="21">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="J26" s="21">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K26" s="21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>498</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -28210,29 +28258,25 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="21">
-        <v>5</v>
-      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="21">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="K28" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -28265,12 +28309,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15">
-        <v>2</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -28280,7 +28322,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -28294,7 +28336,9 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -28302,7 +28346,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -28475,47 +28519,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>1072</v>
+        <v>976</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1985</v>
+        <v>1903</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -28967,14 +29011,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -29019,16 +29063,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
-        <v>42172</v>
+        <v>42165</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
@@ -29111,25 +29155,23 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21">
-        <v>4</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="L6" s="26">
         <f>SUM(B6:K6)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" s="25">
         <v>2</v>
@@ -29172,29 +29214,21 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
         <v>1</v>
       </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
-        <v>40</v>
-      </c>
-      <c r="K8" s="18">
-        <v>6</v>
-      </c>
       <c r="L8" s="26">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M8" s="17">
         <v>1</v>
@@ -29381,30 +29415,32 @@
         <v>20</v>
       </c>
       <c r="B17" s="15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C17" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="J17" s="21">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="21">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="M17" s="17">
         <v>34</v>
@@ -29414,7 +29450,9 @@
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="21"/>
@@ -29426,7 +29464,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="17">
         <v>31</v>
@@ -29436,7 +29474,9 @@
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>8</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
@@ -29444,11 +29484,13 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>16</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M19" s="17">
         <v>25</v>
@@ -29458,37 +29500,37 @@
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15">
-        <v>61</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="15">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20" s="21">
         <v>10</v>
       </c>
       <c r="I20" s="21">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J20" s="21">
         <v>352</v>
       </c>
       <c r="K20" s="21">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="L20" s="26">
         <f t="shared" si="0"/>
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="M20" s="17">
         <v>42</v>
@@ -29498,23 +29540,29 @@
       <c r="A21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="18">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="18">
+        <v>44</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="M21" s="17">
         <v>27</v>
@@ -29597,16 +29645,12 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>4</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>4</v>
-      </c>
+      <c r="K25" s="18"/>
       <c r="L25" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M25" s="17">
         <v>41</v>
@@ -29617,32 +29661,32 @@
         <v>12</v>
       </c>
       <c r="B26" s="15">
-        <v>18</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I26" s="21">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="J26" s="21">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="K26" s="21">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="0"/>
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="M26" s="17">
         <v>60</v>
@@ -29676,7 +29720,7 @@
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="21"/>
@@ -29685,18 +29729,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="21">
-        <v>10</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="21">
+        <v>64</v>
+      </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K28" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="26">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M28" s="17">
         <v>48</v>
@@ -29729,26 +29775,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="15">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="15">
         <v>2</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="21">
-        <v>2</v>
-      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M30" s="17">
         <v>50</v>
@@ -29767,12 +29809,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21">
-        <v>2</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="17">
         <v>52</v>
@@ -29945,47 +29985,47 @@
       </c>
       <c r="B39" s="16">
         <f>SUM(B6:B38)</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16">
         <f t="shared" ref="C39:L39" si="1">SUM(C6:C38)</f>
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>1072</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" si="1"/>
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
-        <v>1902</v>
+        <v>1985</v>
       </c>
       <c r="M39" s="14"/>
       <c r="S39" s="35"/>
@@ -30435,4 +30475,1474 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V144"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
+        <v>42172</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8</v>
+      </c>
+      <c r="J5" s="13">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="26">
+        <f>SUM(B6:K6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26">
+        <f t="shared" ref="L7:L38" si="0">SUM(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <v>40</v>
+      </c>
+      <c r="K8" s="18">
+        <v>6</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="